--- a/Aufnahmebogen/bedeckung_pro_plot.xlsx
+++ b/Aufnahmebogen/bedeckung_pro_plot.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4901" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="139">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -893,7 +893,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D65" si="0">A2&amp;B2&amp;C2</f>
         <v>P02DW01M01</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -931,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -969,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M03</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1007,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M04</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1045,7 +1045,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M05</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1083,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1121,7 +1121,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1157,7 +1157,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1195,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1231,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M03</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M04</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1307,7 +1307,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M05</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1343,7 +1343,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M06</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1379,7 +1379,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1417,7 +1417,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1455,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M02</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1493,7 +1493,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M03</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1607,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M05</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1645,7 +1645,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M06</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1677,7 +1677,7 @@
         <v>97</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M0X</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1709,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M01</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1747,7 +1747,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M02</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M03</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1823,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M04</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1861,7 +1861,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M05</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1899,7 +1899,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M06</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1937,7 +1937,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M07</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1971,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M01</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2009,7 +2009,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M02</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2047,7 +2047,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M03</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2085,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M04</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -2123,7 +2123,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M05</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2161,7 +2161,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M06</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2199,7 +2199,7 @@
         <v>70</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M07</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2237,7 +2237,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -2275,7 +2275,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -2313,7 +2313,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M02</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2351,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M03</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2389,7 +2389,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M04</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -2427,7 +2427,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M05</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -2465,7 +2465,7 @@
         <v>61</v>
       </c>
       <c r="D44" s="8" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M06</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -2497,7 +2497,7 @@
         <v>70</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M07</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2535,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2573,7 +2573,7 @@
         <v>32</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -2611,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M02</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -2649,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M03</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2687,7 +2687,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M04</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2727,7 +2727,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M05</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -2765,7 +2765,7 @@
         <v>61</v>
       </c>
       <c r="D52" s="8" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M06</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -2795,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2833,7 +2833,7 @@
         <v>32</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -2871,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -2909,7 +2909,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -2947,7 +2947,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -2985,7 +2985,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -3023,7 +3023,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M03</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -3061,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M04</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -3099,7 +3099,7 @@
         <v>37</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -3139,7 +3139,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -3179,7 +3179,7 @@
         <v>32</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="0"/>
         <v>P03SL01M01</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -3217,7 +3217,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="0"/>
         <v>P03SL01M02</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -3255,7 +3255,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="0"/>
         <v>P03SL01M03</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -3293,7 +3293,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D129" si="1">A66&amp;B66&amp;C66</f>
         <v>P04DW01M01</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -3331,7 +3331,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M02</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -3369,7 +3369,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M03</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -3407,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>A69&amp;B69&amp;C69</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M04</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -3445,7 +3445,7 @@
         <v>37</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>A70&amp;B70&amp;C70</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M05</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -3483,7 +3483,7 @@
         <v>32</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>A71&amp;B71&amp;C71</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -3521,7 +3521,7 @@
         <v>32</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>A72&amp;B72&amp;C72</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -3559,7 +3559,7 @@
         <v>32</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>A73&amp;B73&amp;C73</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -3597,7 +3597,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>A74&amp;B74&amp;C74</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M02</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -3635,7 +3635,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f>A75&amp;B75&amp;C75</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -3673,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f>A76&amp;B76&amp;C76</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -3711,7 +3711,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>A77&amp;B77&amp;C77</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -3749,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>A78&amp;B78&amp;C78</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -3789,7 +3789,7 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>A79&amp;B79&amp;C79</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -3827,7 +3827,7 @@
         <v>37</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>A80&amp;B80&amp;C80</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M05</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3867,7 +3867,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>A81&amp;B81&amp;C81</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M06</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -3905,7 +3905,7 @@
         <v>70</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>A82&amp;B82&amp;C82</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M07</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -3943,7 +3943,7 @@
         <v>32</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>A83&amp;B83&amp;C83</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M01</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -3981,7 +3981,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>A84&amp;B84&amp;C84</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M02</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -4019,7 +4019,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>A85&amp;B85&amp;C85</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M03</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -4057,7 +4057,7 @@
         <v>32</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>A86&amp;B86&amp;C86</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -4095,7 +4095,7 @@
         <v>32</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>A87&amp;B87&amp;C87</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -4133,7 +4133,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>A88&amp;B88&amp;C88</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -4171,7 +4171,7 @@
         <v>21</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>A89&amp;B89&amp;C89</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -4209,7 +4209,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>A90&amp;B90&amp;C90</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M03</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -4247,7 +4247,7 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>A91&amp;B91&amp;C91</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4283,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>A92&amp;B92&amp;C92</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -4319,7 +4319,7 @@
         <v>37</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>A93&amp;B93&amp;C93</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4357,7 +4357,7 @@
         <v>37</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>A94&amp;B94&amp;C94</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4395,7 +4395,7 @@
         <v>32</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>A95&amp;B95&amp;C95</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M01</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -4433,7 +4433,7 @@
         <v>21</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>A96&amp;B96&amp;C96</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M02</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -4471,7 +4471,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>A97&amp;B97&amp;C97</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M03</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -4509,7 +4509,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>A98&amp;B98&amp;C98</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M04</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -4547,7 +4547,7 @@
         <v>37</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>A99&amp;B99&amp;C99</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M05</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -4585,7 +4585,7 @@
         <v>32</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>A100&amp;B100&amp;C100</f>
+        <f t="shared" si="1"/>
         <v>P06EP01M01</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -4623,7 +4623,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f>A101&amp;B101&amp;C101</f>
+        <f t="shared" si="1"/>
         <v>P06EP01M02</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -4661,7 +4661,7 @@
         <v>32</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>A102&amp;B102&amp;C102</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4699,7 +4699,7 @@
         <v>32</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>A103&amp;B103&amp;C103</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -4737,7 +4737,7 @@
         <v>32</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>A104&amp;B104&amp;C104</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -4775,7 +4775,7 @@
         <v>32</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f>A105&amp;B105&amp;C105</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -4813,7 +4813,7 @@
         <v>21</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f>A106&amp;B106&amp;C106</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M02</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -4851,7 +4851,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f>A107&amp;B107&amp;C107</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -4889,7 +4889,7 @@
         <v>25</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f>A108&amp;B108&amp;C108</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -4927,7 +4927,7 @@
         <v>25</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f>A109&amp;B109&amp;C109</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -4963,7 +4963,7 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f>A110&amp;B110&amp;C110</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -4999,7 +4999,7 @@
         <v>14</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f>A111&amp;B111&amp;C111</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -5035,7 +5035,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f>A112&amp;B112&amp;C112</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -5071,7 +5071,7 @@
         <v>32</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f>A113&amp;B113&amp;C113</f>
+        <f t="shared" si="1"/>
         <v>P06RB01M01</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -5109,7 +5109,7 @@
         <v>32</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f>A114&amp;B114&amp;C114</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M01</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -5147,7 +5147,7 @@
         <v>21</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>A115&amp;B115&amp;C115</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M02</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -5185,7 +5185,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>A116&amp;B116&amp;C116</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M03</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -5223,7 +5223,7 @@
         <v>14</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>A117&amp;B117&amp;C117</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M04</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -5261,7 +5261,7 @@
         <v>37</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>A118&amp;B118&amp;C118</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M05</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -5299,7 +5299,7 @@
         <v>61</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>A119&amp;B119&amp;C119</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M06</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -5337,7 +5337,7 @@
         <v>34</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>A120&amp;B120&amp;C120</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M08</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -5375,7 +5375,7 @@
         <v>74</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>A121&amp;B121&amp;C121</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M09</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -5413,7 +5413,7 @@
         <v>32</v>
       </c>
       <c r="D122" s="6" t="str">
-        <f>A122&amp;B122&amp;C122</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M01</v>
       </c>
       <c r="E122" s="6" t="s">
@@ -5451,7 +5451,7 @@
         <v>21</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>A123&amp;B123&amp;C123</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M02</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -5489,7 +5489,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>A124&amp;B124&amp;C124</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M03</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -5527,7 +5527,7 @@
         <v>14</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>A125&amp;B125&amp;C125</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M04</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -5565,7 +5565,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>A126&amp;B126&amp;C126</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -5603,7 +5603,7 @@
         <v>32</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>A127&amp;B127&amp;C127</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -5641,7 +5641,7 @@
         <v>32</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>A128&amp;B128&amp;C128</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -5679,7 +5679,7 @@
         <v>21</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>A129&amp;B129&amp;C129</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -5717,7 +5717,7 @@
         <v>21</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f>A130&amp;B130&amp;C130</f>
+        <f t="shared" ref="D130:D193" si="2">A130&amp;B130&amp;C130</f>
         <v>P17EP01M02</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -5755,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f>A131&amp;B131&amp;C131</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -5793,7 +5793,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f>A132&amp;B132&amp;C132</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -5831,7 +5831,7 @@
         <v>25</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>A133&amp;B133&amp;C133</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -5871,7 +5871,7 @@
         <v>25</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f>A134&amp;B134&amp;C134</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -5911,7 +5911,7 @@
         <v>32</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f>A135&amp;B135&amp;C135</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M01</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -5949,7 +5949,7 @@
         <v>21</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f>A136&amp;B136&amp;C136</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M02</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -5987,7 +5987,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f>A137&amp;B137&amp;C137</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M03</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -6025,7 +6025,7 @@
         <v>14</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f>A138&amp;B138&amp;C138</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M04</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -6061,7 +6061,7 @@
         <v>32</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f>A139&amp;B139&amp;C139</f>
+        <f t="shared" si="2"/>
         <v>P17EP03M01</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -6099,7 +6099,7 @@
         <v>21</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f>A140&amp;B140&amp;C140</f>
+        <f t="shared" si="2"/>
         <v>P17EP03M02</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -6137,7 +6137,7 @@
         <v>32</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f>A141&amp;B141&amp;C141</f>
+        <f t="shared" si="2"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -6175,7 +6175,7 @@
         <v>32</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f>A142&amp;B142&amp;C142</f>
+        <f t="shared" si="2"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -6213,7 +6213,7 @@
         <v>32</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f>A143&amp;B143&amp;C143</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M01</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -6251,7 +6251,7 @@
         <v>21</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f>A144&amp;B144&amp;C144</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M02</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -6289,7 +6289,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f>A145&amp;B145&amp;C145</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M03</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -6325,7 +6325,7 @@
         <v>14</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f>A146&amp;B146&amp;C146</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M04</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -6363,7 +6363,7 @@
         <v>37</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f>A147&amp;B147&amp;C147</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M05</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -6401,7 +6401,7 @@
         <v>32</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f>A148&amp;B148&amp;C148</f>
+        <f t="shared" si="2"/>
         <v>P18DW01M01</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -6439,7 +6439,7 @@
         <v>21</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f>A149&amp;B149&amp;C149</f>
+        <f t="shared" si="2"/>
         <v>P18DW01M02</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -6477,7 +6477,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f>A150&amp;B150&amp;C150</f>
+        <f t="shared" si="2"/>
         <v>P18DW01M03</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -6515,7 +6515,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f>A151&amp;B151&amp;C151</f>
+        <f t="shared" si="2"/>
         <v>P18DW01M04</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -6553,7 +6553,7 @@
         <v>32</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f>A152&amp;B152&amp;C152</f>
+        <f t="shared" si="2"/>
         <v>P18EP01M01</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -6589,7 +6589,7 @@
         <v>21</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f>A153&amp;B153&amp;C153</f>
+        <f t="shared" si="2"/>
         <v>P18EP01M02</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -6625,7 +6625,7 @@
         <v>32</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f>A154&amp;B154&amp;C154</f>
+        <f t="shared" si="2"/>
         <v>P19DW01M01</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -6663,7 +6663,7 @@
         <v>21</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f>A155&amp;B155&amp;C155</f>
+        <f t="shared" si="2"/>
         <v>P19DW01M02</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -6701,7 +6701,7 @@
         <v>25</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f>A156&amp;B156&amp;C156</f>
+        <f t="shared" si="2"/>
         <v>P19DW01M03</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -6739,7 +6739,7 @@
         <v>14</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f>A157&amp;B157&amp;C157</f>
+        <f t="shared" si="2"/>
         <v>P19DW01M04</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -6775,7 +6775,7 @@
         <v>37</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f>A158&amp;B158&amp;C158</f>
+        <f t="shared" si="2"/>
         <v>P19DW01M05</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -6813,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f>A159&amp;B159&amp;C159</f>
+        <f t="shared" si="2"/>
         <v>P19EP01M01</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -6851,7 +6851,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f>A160&amp;B160&amp;C160</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M01</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -6889,7 +6889,7 @@
         <v>21</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f>A161&amp;B161&amp;C161</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M02</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -6927,7 +6927,7 @@
         <v>25</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f>A162&amp;B162&amp;C162</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M03</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -6965,7 +6965,7 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f>A163&amp;B163&amp;C163</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M04</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -7003,7 +7003,7 @@
         <v>37</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f>A164&amp;B164&amp;C164</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M05</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -7039,7 +7039,7 @@
         <v>61</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f>A165&amp;B165&amp;C165</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M06</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -7077,7 +7077,7 @@
         <v>70</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f>A166&amp;B166&amp;C166</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M07</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -7115,7 +7115,7 @@
         <v>34</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f>A167&amp;B167&amp;C167</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M08</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -7153,7 +7153,7 @@
         <v>87</v>
       </c>
       <c r="D168" s="6" t="str">
-        <f>A168&amp;B168&amp;C168</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M0x</v>
       </c>
       <c r="E168" s="6" t="s">
@@ -7191,7 +7191,7 @@
         <v>80</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f>A169&amp;B169&amp;C169</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M?</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -7229,7 +7229,7 @@
         <v>32</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f>A170&amp;B170&amp;C170</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M01</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -7267,7 +7267,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f>A171&amp;B171&amp;C171</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M02</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -7305,7 +7305,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f>A172&amp;B172&amp;C172</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M03</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -7343,7 +7343,7 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f>A173&amp;B173&amp;C173</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M04</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -7381,7 +7381,7 @@
         <v>37</v>
       </c>
       <c r="D174" s="6" t="str">
-        <f>A174&amp;B174&amp;C174</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M05</v>
       </c>
       <c r="E174" s="6" t="s">
@@ -7419,7 +7419,7 @@
         <v>32</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f>A175&amp;B175&amp;C175</f>
+        <f t="shared" si="2"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -7457,7 +7457,7 @@
         <v>32</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f>A176&amp;B176&amp;C176</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M01</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -7495,7 +7495,7 @@
         <v>21</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f>A177&amp;B177&amp;C177</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M02</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -7533,7 +7533,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f>A178&amp;B178&amp;C178</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M03</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -7571,7 +7571,7 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f>A179&amp;B179&amp;C179</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M04</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -7609,7 +7609,7 @@
         <v>37</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f>A180&amp;B180&amp;C180</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M05</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -7647,7 +7647,7 @@
         <v>61</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f>A181&amp;B181&amp;C181</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -7685,7 +7685,7 @@
         <v>61</v>
       </c>
       <c r="D182" s="3" t="str">
-        <f>A182&amp;B182&amp;C182</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -7721,7 +7721,7 @@
         <v>32</v>
       </c>
       <c r="D183" s="3" t="str">
-        <f>A183&amp;B183&amp;C183</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M01</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -7759,7 +7759,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="3" t="str">
-        <f>A184&amp;B184&amp;C184</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M02</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -7797,7 +7797,7 @@
         <v>25</v>
       </c>
       <c r="D185" s="3" t="str">
-        <f>A185&amp;B185&amp;C185</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M03</v>
       </c>
       <c r="E185" s="3" t="s">
@@ -7835,7 +7835,7 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="str">
-        <f>A186&amp;B186&amp;C186</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M04</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -7873,7 +7873,7 @@
         <v>37</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f>A187&amp;B187&amp;C187</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M05</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -7911,7 +7911,7 @@
         <v>61</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f>A188&amp;B188&amp;C188</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M06</v>
       </c>
       <c r="E188" s="3" t="s">
@@ -7949,7 +7949,7 @@
         <v>32</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f>A189&amp;B189&amp;C189</f>
+        <f t="shared" si="2"/>
         <v>P21EP01M01</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -7987,7 +7987,7 @@
         <v>21</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f>A190&amp;B190&amp;C190</f>
+        <f t="shared" si="2"/>
         <v>P21EP01M02</v>
       </c>
       <c r="E190" s="3" t="s">
@@ -8025,7 +8025,7 @@
         <v>32</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f>A191&amp;B191&amp;C191</f>
+        <f t="shared" si="2"/>
         <v>P21SL01M01</v>
       </c>
       <c r="E191" s="3" t="s">
@@ -8063,7 +8063,7 @@
         <v>125</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f>A192&amp;B192&amp;C192</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E192" s="3" t="s">
@@ -8101,7 +8101,7 @@
         <v>25</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f>A193&amp;B193&amp;C193</f>
+        <f t="shared" si="2"/>
         <v>P21SL01M03</v>
       </c>
       <c r="E193" s="3" t="s">
@@ -8139,7 +8139,7 @@
         <v>32</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f>A194&amp;B194&amp;C194</f>
+        <f t="shared" ref="D194:D257" si="3">A194&amp;B194&amp;C194</f>
         <v>P22DW01M01</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -8177,7 +8177,7 @@
         <v>21</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f>A195&amp;B195&amp;C195</f>
+        <f t="shared" si="3"/>
         <v>P22DW01M02</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -8215,7 +8215,7 @@
         <v>108</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f>A196&amp;B196&amp;C196</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E196" s="3" t="s">
@@ -8253,7 +8253,7 @@
         <v>32</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f>A197&amp;B197&amp;C197</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M01</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -8291,7 +8291,7 @@
         <v>21</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f>A198&amp;B198&amp;C198</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M02</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -8329,7 +8329,7 @@
         <v>25</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f>A199&amp;B199&amp;C199</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M03</v>
       </c>
       <c r="E199" s="3" t="s">
@@ -8367,7 +8367,7 @@
         <v>37</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f>A200&amp;B200&amp;C200</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M05</v>
       </c>
       <c r="E200" s="3" t="s">
@@ -8405,7 +8405,7 @@
         <v>32</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f>A201&amp;B201&amp;C201</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E201" s="3" t="s">
@@ -8443,7 +8443,7 @@
         <v>32</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f>A202&amp;B202&amp;C202</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E202" s="3" t="s">
@@ -8481,7 +8481,7 @@
         <v>21</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f>A203&amp;B203&amp;C203</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E203" s="3" t="s">
@@ -8519,7 +8519,7 @@
         <v>21</v>
       </c>
       <c r="D204" s="3" t="str">
-        <f>A204&amp;B204&amp;C204</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E204" s="3" t="s">
@@ -8557,7 +8557,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="3" t="str">
-        <f>A205&amp;B205&amp;C205</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M03</v>
       </c>
       <c r="E205" s="3" t="s">
@@ -8595,7 +8595,7 @@
         <v>32</v>
       </c>
       <c r="D206" s="3" t="str">
-        <f>A206&amp;B206&amp;C206</f>
+        <f t="shared" si="3"/>
         <v>P22SL01M01</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -8633,7 +8633,7 @@
         <v>21</v>
       </c>
       <c r="D207" s="3" t="str">
-        <f>A207&amp;B207&amp;C207</f>
+        <f t="shared" si="3"/>
         <v>P22SL01M02</v>
       </c>
       <c r="E207" s="3" t="s">
@@ -8671,7 +8671,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="3" t="str">
-        <f>A208&amp;B208&amp;C208</f>
+        <f t="shared" si="3"/>
         <v>P22SL01M03</v>
       </c>
       <c r="E208" s="3" t="s">
@@ -8709,7 +8709,7 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="str">
-        <f>A209&amp;B209&amp;C209</f>
+        <f t="shared" si="3"/>
         <v>P22SL01M04</v>
       </c>
       <c r="E209" s="3" t="s">
@@ -8747,7 +8747,7 @@
         <v>32</v>
       </c>
       <c r="D210" s="3" t="str">
-        <f>A210&amp;B210&amp;C210</f>
+        <f t="shared" si="3"/>
         <v>P23DW01M01</v>
       </c>
       <c r="E210" s="3" t="s">
@@ -8785,7 +8785,7 @@
         <v>21</v>
       </c>
       <c r="D211" s="3" t="str">
-        <f>A211&amp;B211&amp;C211</f>
+        <f t="shared" si="3"/>
         <v>P23DW01M02</v>
       </c>
       <c r="E211" s="3" t="s">
@@ -8823,7 +8823,7 @@
         <v>32</v>
       </c>
       <c r="D212" s="3" t="str">
-        <f>A212&amp;B212&amp;C212</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -8861,7 +8861,7 @@
         <v>32</v>
       </c>
       <c r="D213" s="3" t="str">
-        <f>A213&amp;B213&amp;C213</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -8899,7 +8899,7 @@
         <v>21</v>
       </c>
       <c r="D214" s="3" t="str">
-        <f>A214&amp;B214&amp;C214</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -8937,7 +8937,7 @@
         <v>21</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f>A215&amp;B215&amp;C215</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E215" s="3" t="s">
@@ -8975,7 +8975,7 @@
         <v>25</v>
       </c>
       <c r="D216" s="3" t="str">
-        <f>A216&amp;B216&amp;C216</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E216" s="3" t="s">
@@ -9013,7 +9013,7 @@
         <v>25</v>
       </c>
       <c r="D217" s="3" t="str">
-        <f>A217&amp;B217&amp;C217</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E217" s="3" t="s">
@@ -9049,7 +9049,7 @@
         <v>14</v>
       </c>
       <c r="D218" s="3" t="str">
-        <f>A218&amp;B218&amp;C218</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M04</v>
       </c>
       <c r="E218" s="3" t="s">
@@ -9087,7 +9087,7 @@
         <v>32</v>
       </c>
       <c r="D219" s="3" t="str">
-        <f>A219&amp;B219&amp;C219</f>
+        <f t="shared" si="3"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -9125,7 +9125,7 @@
         <v>32</v>
       </c>
       <c r="D220" s="3" t="str">
-        <f>A220&amp;B220&amp;C220</f>
+        <f t="shared" si="3"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E220" s="3" t="s">
@@ -9163,7 +9163,7 @@
         <v>21</v>
       </c>
       <c r="D221" s="3" t="str">
-        <f>A221&amp;B221&amp;C221</f>
+        <f t="shared" si="3"/>
         <v>P23EP02M02</v>
       </c>
       <c r="E221" s="3" t="s">
@@ -9201,7 +9201,7 @@
         <v>25</v>
       </c>
       <c r="D222" s="3" t="str">
-        <f>A222&amp;B222&amp;C222</f>
+        <f t="shared" si="3"/>
         <v>P23EP02M03</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -9239,7 +9239,7 @@
         <v>32</v>
       </c>
       <c r="D223" s="3" t="str">
-        <f>A223&amp;B223&amp;C223</f>
+        <f t="shared" si="3"/>
         <v>P23SL01M01</v>
       </c>
       <c r="E223" s="3" t="s">
@@ -9277,7 +9277,7 @@
         <v>21</v>
       </c>
       <c r="D224" s="3" t="str">
-        <f>A224&amp;B224&amp;C224</f>
+        <f t="shared" si="3"/>
         <v>P23SL01M02</v>
       </c>
       <c r="E224" s="3" t="s">
@@ -9315,7 +9315,7 @@
         <v>25</v>
       </c>
       <c r="D225" s="3" t="str">
-        <f>A225&amp;B225&amp;C225</f>
+        <f t="shared" si="3"/>
         <v>P23SL01M03</v>
       </c>
       <c r="E225" s="3" t="s">
@@ -9353,7 +9353,7 @@
         <v>32</v>
       </c>
       <c r="D226" s="3" t="str">
-        <f>A226&amp;B226&amp;C226</f>
+        <f t="shared" si="3"/>
         <v>P24DW01M01</v>
       </c>
       <c r="E226" s="3" t="s">
@@ -9391,7 +9391,7 @@
         <v>21</v>
       </c>
       <c r="D227" s="3" t="str">
-        <f>A227&amp;B227&amp;C227</f>
+        <f t="shared" si="3"/>
         <v>P24DW01M02</v>
       </c>
       <c r="E227" s="3" t="s">
@@ -9429,7 +9429,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="3" t="str">
-        <f>A228&amp;B228&amp;C228</f>
+        <f t="shared" si="3"/>
         <v>P24DW01M03</v>
       </c>
       <c r="E228" s="3" t="s">
@@ -9467,7 +9467,7 @@
         <v>32</v>
       </c>
       <c r="D229" s="3" t="str">
-        <f>A229&amp;B229&amp;C229</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M01</v>
       </c>
       <c r="E229" s="3" t="s">
@@ -9505,7 +9505,7 @@
         <v>21</v>
       </c>
       <c r="D230" s="3" t="str">
-        <f>A230&amp;B230&amp;C230</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M02</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -9543,7 +9543,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="3" t="str">
-        <f>A231&amp;B231&amp;C231</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M03</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -9581,7 +9581,7 @@
         <v>14</v>
       </c>
       <c r="D232" s="3" t="str">
-        <f>A232&amp;B232&amp;C232</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M04</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -9619,7 +9619,7 @@
         <v>37</v>
       </c>
       <c r="D233" s="3" t="str">
-        <f>A233&amp;B233&amp;C233</f>
+        <f t="shared" si="3"/>
         <v>P24EP02M05</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -9657,7 +9657,7 @@
         <v>61</v>
       </c>
       <c r="D234" s="3" t="str">
-        <f>A234&amp;B234&amp;C234</f>
+        <f t="shared" si="3"/>
         <v>P24EP02M06</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -9695,7 +9695,7 @@
         <v>70</v>
       </c>
       <c r="D235" s="3" t="str">
-        <f>A235&amp;B235&amp;C235</f>
+        <f t="shared" si="3"/>
         <v>P24EP02M07</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -9733,7 +9733,7 @@
         <v>32</v>
       </c>
       <c r="D236" s="3" t="str">
-        <f>A236&amp;B236&amp;C236</f>
+        <f t="shared" si="3"/>
         <v>P24SL01M01</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -9771,7 +9771,7 @@
         <v>21</v>
       </c>
       <c r="D237" s="3" t="str">
-        <f>A237&amp;B237&amp;C237</f>
+        <f t="shared" si="3"/>
         <v>P24SL01M02</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -9809,7 +9809,7 @@
         <v>25</v>
       </c>
       <c r="D238" s="3" t="str">
-        <f>A238&amp;B238&amp;C238</f>
+        <f t="shared" si="3"/>
         <v>P24SL01M03</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -9847,7 +9847,7 @@
         <v>32</v>
       </c>
       <c r="D239" s="3" t="str">
-        <f>A239&amp;B239&amp;C239</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M01</v>
       </c>
       <c r="E239" s="3" t="s">
@@ -9885,7 +9885,7 @@
         <v>21</v>
       </c>
       <c r="D240" s="3" t="str">
-        <f>A240&amp;B240&amp;C240</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M02</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -9923,7 +9923,7 @@
         <v>25</v>
       </c>
       <c r="D241" s="3" t="str">
-        <f>A241&amp;B241&amp;C241</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M03</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -9961,7 +9961,7 @@
         <v>14</v>
       </c>
       <c r="D242" s="3" t="str">
-        <f>A242&amp;B242&amp;C242</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M04</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -9999,7 +9999,7 @@
         <v>37</v>
       </c>
       <c r="D243" s="3" t="str">
-        <f>A243&amp;B243&amp;C243</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M05</v>
       </c>
       <c r="E243" s="3" t="s">
@@ -10037,7 +10037,7 @@
         <v>32</v>
       </c>
       <c r="D244" s="3" t="str">
-        <f>A244&amp;B244&amp;C244</f>
+        <f t="shared" si="3"/>
         <v>P25EP01M01</v>
       </c>
       <c r="E244" s="3" t="s">
@@ -10075,7 +10075,7 @@
         <v>32</v>
       </c>
       <c r="D245" s="3" t="str">
-        <f>A245&amp;B245&amp;C245</f>
+        <f t="shared" si="3"/>
         <v>P25EP02M01</v>
       </c>
       <c r="E245" s="3" t="s">
@@ -10113,7 +10113,7 @@
         <v>21</v>
       </c>
       <c r="D246" s="3" t="str">
-        <f>A246&amp;B246&amp;C246</f>
+        <f t="shared" si="3"/>
         <v>P25EP02M02</v>
       </c>
       <c r="E246" s="3" t="s">
@@ -10151,7 +10151,7 @@
         <v>25</v>
       </c>
       <c r="D247" s="3" t="str">
-        <f>A247&amp;B247&amp;C247</f>
+        <f t="shared" si="3"/>
         <v>P25EP02M03</v>
       </c>
       <c r="E247" s="3" t="s">
@@ -10189,7 +10189,7 @@
         <v>32</v>
       </c>
       <c r="D248" s="3" t="str">
-        <f>A248&amp;B248&amp;C248</f>
+        <f t="shared" si="3"/>
         <v>P25EP03M01</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -10227,7 +10227,7 @@
         <v>21</v>
       </c>
       <c r="D249" s="3" t="str">
-        <f>A249&amp;B249&amp;C249</f>
+        <f t="shared" si="3"/>
         <v>P25EP03M02</v>
       </c>
       <c r="E249" s="3" t="s">
@@ -10265,7 +10265,7 @@
         <v>25</v>
       </c>
       <c r="D250" s="3" t="str">
-        <f>A250&amp;B250&amp;C250</f>
+        <f t="shared" si="3"/>
         <v>P25EP03M03</v>
       </c>
       <c r="E250" s="3" t="s">
@@ -10303,7 +10303,7 @@
         <v>14</v>
       </c>
       <c r="D251" s="3" t="str">
-        <f>A251&amp;B251&amp;C251</f>
+        <f t="shared" si="3"/>
         <v>P25EP03M04</v>
       </c>
       <c r="E251" s="3" t="s">
@@ -10341,7 +10341,7 @@
         <v>32</v>
       </c>
       <c r="D252" s="3" t="str">
-        <f>A252&amp;B252&amp;C252</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M01</v>
       </c>
       <c r="E252" s="3" t="s">
@@ -10379,7 +10379,7 @@
         <v>21</v>
       </c>
       <c r="D253" s="3" t="str">
-        <f>A253&amp;B253&amp;C253</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M02</v>
       </c>
       <c r="E253" s="3" t="s">
@@ -10417,7 +10417,7 @@
         <v>25</v>
       </c>
       <c r="D254" s="3" t="str">
-        <f>A254&amp;B254&amp;C254</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M03</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -10455,7 +10455,7 @@
         <v>37</v>
       </c>
       <c r="D255" s="3" t="str">
-        <f>A255&amp;B255&amp;C255</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M05</v>
       </c>
       <c r="E255" s="3" t="s">
@@ -10493,7 +10493,7 @@
         <v>61</v>
       </c>
       <c r="D256" s="3" t="str">
-        <f>A256&amp;B256&amp;C256</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M06</v>
       </c>
       <c r="E256" s="3" t="s">
@@ -10531,7 +10531,7 @@
         <v>70</v>
       </c>
       <c r="D257" s="3" t="str">
-        <f>A257&amp;B257&amp;C257</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M07</v>
       </c>
       <c r="E257" s="3" t="s">
@@ -10569,7 +10569,7 @@
         <v>34</v>
       </c>
       <c r="D258" s="3" t="str">
-        <f>A258&amp;B258&amp;C258</f>
+        <f t="shared" ref="D258:D321" si="4">A258&amp;B258&amp;C258</f>
         <v>P25SL01M08</v>
       </c>
       <c r="E258" s="3" t="s">
@@ -10607,7 +10607,7 @@
         <v>32</v>
       </c>
       <c r="D259" s="3" t="str">
-        <f>A259&amp;B259&amp;C259</f>
+        <f t="shared" si="4"/>
         <v>P26DW01M01</v>
       </c>
       <c r="E259" s="3" t="s">
@@ -10645,7 +10645,7 @@
         <v>21</v>
       </c>
       <c r="D260" s="3" t="str">
-        <f>A260&amp;B260&amp;C260</f>
+        <f t="shared" si="4"/>
         <v>P26DW01M02</v>
       </c>
       <c r="E260" s="3" t="s">
@@ -10683,7 +10683,7 @@
         <v>32</v>
       </c>
       <c r="D261" s="3" t="str">
-        <f>A261&amp;B261&amp;C261</f>
+        <f t="shared" si="4"/>
         <v>P26EP01M01</v>
       </c>
       <c r="E261" s="3" t="s">
@@ -10721,7 +10721,7 @@
         <v>21</v>
       </c>
       <c r="D262" s="3" t="str">
-        <f>A262&amp;B262&amp;C262</f>
+        <f t="shared" si="4"/>
         <v>P26EP01M02</v>
       </c>
       <c r="E262" s="3" t="s">
@@ -10759,7 +10759,7 @@
         <v>32</v>
       </c>
       <c r="D263" s="3" t="str">
-        <f>A263&amp;B263&amp;C263</f>
+        <f t="shared" si="4"/>
         <v>P26EP02M01</v>
       </c>
       <c r="E263" s="3" t="s">
@@ -10797,7 +10797,7 @@
         <v>32</v>
       </c>
       <c r="D264" s="3" t="str">
-        <f>A264&amp;B264&amp;C264</f>
+        <f t="shared" si="4"/>
         <v>P26SL01M01</v>
       </c>
       <c r="E264" s="3" t="s">
@@ -10835,7 +10835,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="3" t="str">
-        <f>A265&amp;B265&amp;C265</f>
+        <f t="shared" si="4"/>
         <v>P26SL01M02</v>
       </c>
       <c r="E265" s="3" t="s">
@@ -10873,7 +10873,7 @@
         <v>25</v>
       </c>
       <c r="D266" s="3" t="str">
-        <f>A266&amp;B266&amp;C266</f>
+        <f t="shared" si="4"/>
         <v>P26SL01M03</v>
       </c>
       <c r="E266" s="3" t="s">
@@ -10911,7 +10911,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="3" t="str">
-        <f>A267&amp;B267&amp;C267</f>
+        <f t="shared" si="4"/>
         <v>P26SL01M04</v>
       </c>
       <c r="E267" s="3" t="s">
@@ -10949,7 +10949,7 @@
         <v>32</v>
       </c>
       <c r="D268" s="3" t="str">
-        <f>A268&amp;B268&amp;C268</f>
+        <f t="shared" si="4"/>
         <v>P27DW01M01</v>
       </c>
       <c r="E268" s="3" t="s">
@@ -10987,7 +10987,7 @@
         <v>21</v>
       </c>
       <c r="D269" s="3" t="str">
-        <f>A269&amp;B269&amp;C269</f>
+        <f t="shared" si="4"/>
         <v>P27DW01M02</v>
       </c>
       <c r="E269" s="3" t="s">
@@ -11025,7 +11025,7 @@
         <v>32</v>
       </c>
       <c r="D270" s="3" t="str">
-        <f>A270&amp;B270&amp;C270</f>
+        <f t="shared" si="4"/>
         <v>P27EP01M01</v>
       </c>
       <c r="E270" s="3" t="s">
@@ -11063,7 +11063,7 @@
         <v>21</v>
       </c>
       <c r="D271" s="3" t="str">
-        <f>A271&amp;B271&amp;C271</f>
+        <f t="shared" si="4"/>
         <v>P27EP01M02</v>
       </c>
       <c r="E271" s="3" t="s">
@@ -11101,7 +11101,7 @@
         <v>119</v>
       </c>
       <c r="D272" s="3" t="str">
-        <f>A272&amp;B272&amp;C272</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">P27SL01M01 </v>
       </c>
       <c r="E272" s="3" t="s">
@@ -11139,7 +11139,7 @@
         <v>21</v>
       </c>
       <c r="D273" s="3" t="str">
-        <f>A273&amp;B273&amp;C273</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M02</v>
       </c>
       <c r="E273" s="3" t="s">
@@ -11177,7 +11177,7 @@
         <v>25</v>
       </c>
       <c r="D274" s="3" t="str">
-        <f>A274&amp;B274&amp;C274</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M03</v>
       </c>
       <c r="E274" s="3" t="s">
@@ -11215,7 +11215,7 @@
         <v>14</v>
       </c>
       <c r="D275" s="3" t="str">
-        <f>A275&amp;B275&amp;C275</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M04</v>
       </c>
       <c r="E275" s="3" t="s">
@@ -11253,7 +11253,7 @@
         <v>37</v>
       </c>
       <c r="D276" s="3" t="str">
-        <f>A276&amp;B276&amp;C276</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M05</v>
       </c>
       <c r="E276" s="3" t="s">
@@ -11291,7 +11291,7 @@
         <v>61</v>
       </c>
       <c r="D277" s="3" t="str">
-        <f>A277&amp;B277&amp;C277</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M06</v>
       </c>
       <c r="E277" s="3" t="s">
@@ -11329,7 +11329,7 @@
         <v>70</v>
       </c>
       <c r="D278" s="3" t="str">
-        <f>A278&amp;B278&amp;C278</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M07</v>
       </c>
       <c r="E278" s="3" t="s">
@@ -11367,7 +11367,7 @@
         <v>32</v>
       </c>
       <c r="D279" s="3" t="str">
-        <f>A279&amp;B279&amp;C279</f>
+        <f t="shared" si="4"/>
         <v>P28DW01M01</v>
       </c>
       <c r="E279" s="3" t="s">
@@ -11405,7 +11405,7 @@
         <v>21</v>
       </c>
       <c r="D280" s="3" t="str">
-        <f>A280&amp;B280&amp;C280</f>
+        <f t="shared" si="4"/>
         <v>P28DW01M02</v>
       </c>
       <c r="E280" s="3" t="s">
@@ -11443,7 +11443,7 @@
         <v>32</v>
       </c>
       <c r="D281" s="3" t="str">
-        <f>A281&amp;B281&amp;C281</f>
+        <f t="shared" si="4"/>
         <v>P28EP01M01</v>
       </c>
       <c r="E281" s="3" t="s">
@@ -11481,7 +11481,7 @@
         <v>21</v>
       </c>
       <c r="D282" s="3" t="str">
-        <f>A282&amp;B282&amp;C282</f>
+        <f t="shared" si="4"/>
         <v>P28EP01M02</v>
       </c>
       <c r="E282" s="3" t="s">
@@ -11519,7 +11519,7 @@
         <v>32</v>
       </c>
       <c r="D283" s="3" t="str">
-        <f>A283&amp;B283&amp;C283</f>
+        <f t="shared" si="4"/>
         <v>P28SL01M01</v>
       </c>
       <c r="E283" s="3" t="s">
@@ -11557,7 +11557,7 @@
         <v>21</v>
       </c>
       <c r="D284" s="3" t="str">
-        <f>A284&amp;B284&amp;C284</f>
+        <f t="shared" si="4"/>
         <v>P28SL01M02</v>
       </c>
       <c r="E284" s="3" t="s">
@@ -11595,7 +11595,7 @@
         <v>25</v>
       </c>
       <c r="D285" s="3" t="str">
-        <f>A285&amp;B285&amp;C285</f>
+        <f t="shared" si="4"/>
         <v>P28SL01M03</v>
       </c>
       <c r="E285" s="3" t="s">
@@ -11633,7 +11633,7 @@
         <v>32</v>
       </c>
       <c r="D286" s="3" t="str">
-        <f>A286&amp;B286&amp;C286</f>
+        <f t="shared" si="4"/>
         <v>P29DW01M01</v>
       </c>
       <c r="E286" s="3" t="s">
@@ -11671,7 +11671,7 @@
         <v>21</v>
       </c>
       <c r="D287" s="3" t="str">
-        <f>A287&amp;B287&amp;C287</f>
+        <f t="shared" si="4"/>
         <v>P29DW01M02</v>
       </c>
       <c r="E287" s="3" t="s">
@@ -11709,7 +11709,7 @@
         <v>25</v>
       </c>
       <c r="D288" s="3" t="str">
-        <f>A288&amp;B288&amp;C288</f>
+        <f t="shared" si="4"/>
         <v>P29DW01M03</v>
       </c>
       <c r="E288" s="3" t="s">
@@ -11747,7 +11747,7 @@
         <v>14</v>
       </c>
       <c r="D289" s="6" t="str">
-        <f>A289&amp;B289&amp;C289</f>
+        <f t="shared" si="4"/>
         <v>P29DW01M04</v>
       </c>
       <c r="E289" s="6" t="s">
@@ -11785,7 +11785,7 @@
         <v>32</v>
       </c>
       <c r="D290" s="3" t="str">
-        <f>A290&amp;B290&amp;C290</f>
+        <f t="shared" si="4"/>
         <v>P29EP01M01</v>
       </c>
       <c r="E290" s="3" t="s">
@@ -11821,7 +11821,7 @@
         <v>32</v>
       </c>
       <c r="D291" s="3" t="str">
-        <f>A291&amp;B291&amp;C291</f>
+        <f t="shared" si="4"/>
         <v>P29EP02M01</v>
       </c>
       <c r="E291" s="3" t="s">
@@ -11859,7 +11859,7 @@
         <v>32</v>
       </c>
       <c r="D292" s="3" t="str">
-        <f>A292&amp;B292&amp;C292</f>
+        <f t="shared" si="4"/>
         <v>P29SL01M01</v>
       </c>
       <c r="E292" s="3" t="s">
@@ -11900,7 +11900,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H13" sqref="H13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -11963,7 +11963,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D14" si="0">A2&amp;B2&amp;C2</f>
         <v>P20DW01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -11978,7 +11978,9 @@
       <c r="H2" s="1">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
@@ -12002,7 +12004,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M05</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -12017,7 +12019,9 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>53</v>
       </c>
@@ -12041,7 +12045,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M05</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -12056,7 +12060,9 @@
       <c r="H4" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>72</v>
       </c>
@@ -12080,7 +12086,7 @@
         <v>80</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M?</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -12095,7 +12101,9 @@
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>72</v>
       </c>
@@ -12119,7 +12127,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M04</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -12134,7 +12142,9 @@
       <c r="H6" s="1">
         <v>0.5</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
@@ -12158,7 +12168,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -12173,7 +12183,9 @@
       <c r="H7" s="1">
         <v>15</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>38</v>
       </c>
@@ -12197,7 +12209,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -12212,7 +12224,9 @@
       <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>53</v>
       </c>
@@ -12236,7 +12250,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -12251,7 +12265,9 @@
       <c r="H9" s="1">
         <v>87.5</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>87.5</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>91</v>
       </c>
@@ -12275,7 +12291,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -12316,7 +12332,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M03</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -12331,7 +12347,9 @@
       <c r="H11" s="1">
         <v>0.5</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>111</v>
       </c>
@@ -12355,7 +12373,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M03</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -12370,7 +12388,9 @@
       <c r="H12" s="1">
         <v>0.5</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>106</v>
       </c>
@@ -12394,7 +12414,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M04</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -12409,7 +12429,9 @@
       <c r="H13" s="2">
         <v>0.1</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>121</v>
       </c>
@@ -12433,7 +12455,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M01</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -12448,7 +12470,9 @@
       <c r="H14" s="1">
         <v>15</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
       <c r="J14" s="3" t="s">
         <v>88</v>
       </c>
@@ -12490,7 +12514,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H10" sqref="H10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -12554,7 +12578,7 @@
         <v>61</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D12" si="0">A2&amp;B2&amp;C2</f>
         <v>P21DW01M06</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -12569,7 +12593,9 @@
       <c r="H2" s="1">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>62</v>
       </c>
@@ -12593,7 +12619,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P21EP01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -12634,7 +12660,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M02</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -12649,7 +12675,9 @@
       <c r="H4" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
@@ -12673,7 +12701,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P21SL01M03</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -12688,7 +12716,9 @@
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>65</v>
       </c>
@@ -12712,7 +12742,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M04</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -12727,7 +12757,9 @@
       <c r="H6" s="2">
         <v>62.5</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>62.5</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>91</v>
       </c>
@@ -12751,7 +12783,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P21EP01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -12792,7 +12824,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M03</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -12807,7 +12839,9 @@
       <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>112</v>
       </c>
@@ -12831,7 +12865,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -12846,7 +12880,9 @@
       <c r="H9" s="2">
         <v>0.1</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
@@ -12870,7 +12906,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P21SL01M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -12885,7 +12921,9 @@
       <c r="H10" s="1">
         <v>15</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>121</v>
       </c>
@@ -12909,7 +12947,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M05</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -12924,7 +12962,9 @@
       <c r="H11" s="2">
         <v>0.1</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J11" s="3" t="s">
         <v>88</v>
       </c>
@@ -12948,7 +12988,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E12" s="3" t="s">
@@ -12963,7 +13003,9 @@
       <c r="H12" s="1">
         <v>15</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>15</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>88</v>
       </c>
@@ -12989,7 +13031,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -13053,7 +13095,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D17" si="0">A2&amp;B2&amp;C2</f>
         <v>P22SL01M03</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -13068,7 +13110,9 @@
       <c r="H2" s="1">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13092,7 +13136,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P22DW01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -13107,7 +13151,9 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -13131,7 +13177,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M02</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -13172,7 +13218,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P22SL01M01</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -13187,7 +13233,9 @@
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
@@ -13211,7 +13259,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M05</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -13252,7 +13300,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P22DW01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -13267,7 +13315,9 @@
       <c r="H7" s="1">
         <v>62.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>62.5</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
@@ -13291,7 +13341,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -13332,7 +13382,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -13373,7 +13423,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -13414,7 +13464,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P22SL01M04</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -13429,7 +13479,9 @@
       <c r="H11" s="2">
         <v>0.1</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>91</v>
       </c>
@@ -13453,7 +13505,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -13494,7 +13546,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M03</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -13535,7 +13587,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -13576,7 +13628,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -13617,7 +13669,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M03</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -13658,7 +13710,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P22SL01M02</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -13673,7 +13725,9 @@
       <c r="H17" s="1">
         <v>0.5</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13699,7 +13753,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -13763,7 +13817,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D17" si="0">A2&amp;B2&amp;C2</f>
         <v>P23SL01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -13778,7 +13832,9 @@
       <c r="H2" s="1">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13802,7 +13858,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P23DW01M01</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -13817,7 +13873,9 @@
       <c r="H3" s="1">
         <v>15</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -13841,7 +13899,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M02</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -13882,7 +13940,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P23SL01M01</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -13897,7 +13955,9 @@
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
@@ -13921,7 +13981,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -13962,7 +14022,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P23DW01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -13977,7 +14037,9 @@
       <c r="H7" s="1">
         <v>37.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
@@ -14001,7 +14063,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -14016,7 +14078,7 @@
       <c r="H8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -14042,7 +14104,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -14057,7 +14119,7 @@
       <c r="H9" s="1">
         <v>0.5</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -14083,7 +14145,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -14098,7 +14160,7 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -14124,7 +14186,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -14139,7 +14201,7 @@
       <c r="H11" s="1">
         <v>37.5</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -14165,7 +14227,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M03</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -14206,7 +14268,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -14247,7 +14309,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -14288,7 +14350,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P23SL01M03</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -14303,7 +14365,9 @@
       <c r="H15" s="2">
         <v>0.1</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
@@ -14327,7 +14391,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M04</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -14368,7 +14432,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -14411,7 +14475,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -14475,7 +14539,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D14" si="0">A2&amp;B2&amp;C2</f>
         <v>P24SL01M03</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -14490,7 +14554,9 @@
       <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14514,7 +14580,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M03</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -14529,7 +14595,9 @@
       <c r="H3" s="1">
         <v>37.5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -14553,7 +14621,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M05</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -14594,7 +14662,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P24SL01M02</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -14609,7 +14677,9 @@
       <c r="H5" s="2">
         <v>0.1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
@@ -14633,7 +14703,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -14648,7 +14718,9 @@
       <c r="H6" s="2">
         <v>0.1</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
@@ -14672,7 +14744,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P24EP01M03</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -14713,7 +14785,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M02</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -14728,7 +14800,9 @@
       <c r="H8" s="1">
         <v>37.5</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>91</v>
       </c>
@@ -14752,7 +14826,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P24EP01M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -14793,7 +14867,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M06</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -14834,7 +14908,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M07</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -14875,7 +14949,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P24EP01M02</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -14916,7 +14990,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P24EP01M04</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -14957,7 +15031,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P24SL01M01</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -14972,7 +15046,9 @@
       <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
@@ -14998,7 +15074,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H17" sqref="H17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -15062,7 +15138,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D21" si="0">A2&amp;B2&amp;C2</f>
         <v>P25DW01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -15077,7 +15153,9 @@
       <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
@@ -15101,7 +15179,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M03</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -15116,7 +15194,9 @@
       <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>65</v>
       </c>
@@ -15140,7 +15220,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M03</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -15155,7 +15235,9 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
@@ -15179,7 +15261,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M02</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -15220,7 +15302,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M08</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -15235,7 +15317,9 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>78</v>
       </c>
@@ -15259,7 +15343,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -15274,7 +15358,9 @@
       <c r="H7" s="1">
         <v>37.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>88</v>
       </c>
@@ -15298,7 +15384,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P25EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -15339,7 +15425,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -15380,7 +15466,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M03</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -15421,7 +15507,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M01</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -15462,7 +15548,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M03</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -15503,7 +15589,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M04</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -15544,7 +15630,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M06</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -15559,7 +15645,9 @@
       <c r="H14" s="2">
         <v>0.1</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>95</v>
       </c>
@@ -15583,7 +15671,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M04</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -15598,7 +15686,9 @@
       <c r="H15" s="1">
         <v>0.5</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
@@ -15622,7 +15712,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M07</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -15637,7 +15727,9 @@
       <c r="H16" s="2">
         <v>0.1</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
@@ -15661,7 +15753,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>p25DW01M01</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -15676,7 +15768,9 @@
       <c r="H17" s="2">
         <v>62.5</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>62.5</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>91</v>
       </c>
@@ -15700,7 +15794,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M01</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -15715,7 +15809,9 @@
       <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>3</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>121</v>
       </c>
@@ -15739,7 +15835,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M05</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -15754,7 +15850,9 @@
       <c r="H19" s="1">
         <v>0.5</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
@@ -15778,7 +15876,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M05</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -15793,7 +15891,9 @@
       <c r="H20" s="1">
         <v>0.5</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>126</v>
       </c>
@@ -15817,7 +15917,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M02</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -15860,7 +15960,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -15924,7 +16024,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D10" si="0">A2&amp;B2&amp;C2</f>
         <v>P26DW01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -15939,7 +16039,9 @@
       <c r="H2" s="1">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
       <c r="J2" s="4" t="s">
         <v>38</v>
       </c>
@@ -15963,7 +16065,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M04</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -15978,7 +16080,9 @@
       <c r="H3" s="1">
         <v>0.5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>38</v>
       </c>
@@ -16002,7 +16106,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M01</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -16017,7 +16121,9 @@
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>72</v>
       </c>
@@ -16041,7 +16147,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M02</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -16056,7 +16162,9 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>78</v>
       </c>
@@ -16080,7 +16188,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P26DW01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -16095,7 +16203,9 @@
       <c r="H6" s="1">
         <v>37.5</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>91</v>
       </c>
@@ -16119,7 +16229,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P26EP01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -16160,7 +16270,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P26EP01M02</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -16201,7 +16311,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P26EP02M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -16242,7 +16352,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M03</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -16257,7 +16367,9 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
@@ -16283,7 +16395,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H10" sqref="H10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -16347,7 +16459,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D12" si="0">A2&amp;B2&amp;C2</f>
         <v>P27SL01M03</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -16362,7 +16474,9 @@
       <c r="H2" s="1">
         <v>37.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
@@ -16386,7 +16500,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P27DW01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -16401,7 +16515,9 @@
       <c r="H3" s="2">
         <v>0.1</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>65</v>
       </c>
@@ -16425,7 +16541,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M05</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -16440,7 +16556,9 @@
       <c r="H4" s="1">
         <v>0.5</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
@@ -16464,7 +16582,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M06</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -16479,7 +16597,9 @@
       <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>79</v>
       </c>
@@ -16503,7 +16623,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P27DW01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -16518,7 +16638,9 @@
       <c r="H6" s="1">
         <v>62.5</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>62.5</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>91</v>
       </c>
@@ -16542,7 +16664,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P27EP01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -16583,7 +16705,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M07</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -16598,7 +16720,9 @@
       <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>91</v>
       </c>
@@ -16622,7 +16746,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P27EP01M02</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -16663,7 +16787,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M02</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -16678,7 +16802,9 @@
       <c r="H10" s="1">
         <v>15</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
@@ -16702,7 +16828,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">P27SL01M01 </v>
       </c>
       <c r="E11" s="3" t="s">
@@ -16717,7 +16843,9 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
@@ -16741,7 +16869,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M04</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -16756,7 +16884,9 @@
       <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>88</v>
       </c>
@@ -16782,7 +16912,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H5" sqref="H5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -16846,7 +16976,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D8" si="0">A2&amp;B2&amp;C2</f>
         <v>P28SL01M01</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -16861,7 +16991,9 @@
       <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16885,7 +17017,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P28DW01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -16900,7 +17032,9 @@
       <c r="H3" s="1">
         <v>87.5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>87.5</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>38</v>
       </c>
@@ -16924,7 +17058,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P28EP01M02</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -16965,7 +17099,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P28SL01M02</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -16980,7 +17114,9 @@
       <c r="H5" s="2">
         <v>0.1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
@@ -17004,7 +17140,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P28SL01M03</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -17019,7 +17155,9 @@
       <c r="H6" s="2">
         <v>0.1</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>38</v>
       </c>
@@ -17043,7 +17181,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P28DW01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -17058,7 +17196,9 @@
       <c r="H7" s="1">
         <v>0.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>91</v>
       </c>
@@ -17082,7 +17222,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P28EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -17125,7 +17265,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -17189,7 +17329,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D8" si="0">A2&amp;B2&amp;C2</f>
         <v>P29DW01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -17204,7 +17344,9 @@
       <c r="H2" s="2">
         <v>62.5</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>62.5</v>
+      </c>
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
@@ -17228,7 +17370,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M03</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -17243,7 +17385,9 @@
       <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>38</v>
       </c>
@@ -17267,7 +17411,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M04</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -17282,7 +17426,9 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>53</v>
       </c>
@@ -17306,7 +17452,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M01</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -17321,7 +17467,9 @@
       <c r="H5" s="1">
         <v>15</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>16</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>91</v>
       </c>
@@ -17345,7 +17493,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P29EP01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -17384,7 +17532,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P29EP02M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -17425,7 +17573,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P29SL01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -17440,7 +17588,9 @@
       <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
@@ -17466,7 +17616,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -17530,7 +17680,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D29" si="0">A2&amp;B2&amp;C2</f>
         <v>P02RK01M04</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -17545,7 +17695,9 @@
       <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17569,7 +17721,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M04</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -17584,7 +17736,9 @@
       <c r="H3" s="1">
         <v>37.5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -17608,7 +17762,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M03</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -17649,7 +17803,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M02</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -17690,7 +17844,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M05</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -17705,7 +17859,9 @@
       <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
@@ -17729,7 +17885,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -17744,7 +17900,9 @@
       <c r="H7" s="1">
         <v>0.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>65</v>
       </c>
@@ -17768,7 +17926,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M04</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -17809,7 +17967,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M02</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -17824,7 +17982,9 @@
       <c r="H9" s="2">
         <v>0.1</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>65</v>
       </c>
@@ -17848,7 +18008,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M06</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -17863,7 +18023,9 @@
       <c r="H10" s="2">
         <v>0.1</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>58</v>
       </c>
@@ -17887,7 +18049,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M01</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -17902,7 +18064,9 @@
       <c r="H11" s="1">
         <v>87.5</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>87.5</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>91</v>
       </c>
@@ -17926,7 +18090,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -17967,7 +18131,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -18008,7 +18172,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -18049,7 +18213,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -18090,7 +18254,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M01</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -18105,7 +18269,9 @@
       <c r="H16" s="1">
         <v>37.5</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>91</v>
       </c>
@@ -18129,7 +18295,7 @@
         <v>97</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M0X</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -18170,7 +18336,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M05</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -18185,7 +18351,9 @@
       <c r="H18" s="1">
         <v>0.5</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
@@ -18209,7 +18377,7 @@
         <v>70</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M07</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -18250,7 +18418,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M03</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -18265,7 +18433,9 @@
       <c r="H20" s="2">
         <v>0.1</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>58</v>
       </c>
@@ -18289,7 +18459,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M06</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -18330,7 +18500,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M03</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -18345,7 +18515,9 @@
       <c r="H22" s="2">
         <v>0.1</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
@@ -18369,7 +18541,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -18410,7 +18582,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -18451,7 +18623,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M03</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -18490,7 +18662,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M05</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -18527,7 +18699,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M05</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -18564,7 +18736,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="13" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M06</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -18601,7 +18773,7 @@
         <v>136</v>
       </c>
       <c r="D29" s="6" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M0Y</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -18642,7 +18814,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -18705,7 +18877,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D35" si="0">A2&amp;B2&amp;C2</f>
         <v>P03SL01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -18720,7 +18892,9 @@
       <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -18744,7 +18918,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M04</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -18759,7 +18933,9 @@
       <c r="H3" s="1">
         <v>37.5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -18783,7 +18959,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M03</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -18824,7 +19000,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M02</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -18865,7 +19041,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M03</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -18906,7 +19082,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M04</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -18921,7 +19097,9 @@
       <c r="H7" s="2">
         <v>0.1</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
@@ -18945,7 +19123,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M05</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -18960,7 +19138,9 @@
       <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>68</v>
       </c>
@@ -18984,7 +19164,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M03</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -18999,7 +19179,9 @@
       <c r="H9" s="1">
         <v>37.5</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>37.5</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>91</v>
       </c>
@@ -19023,7 +19205,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -19064,7 +19246,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M02</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -19105,7 +19287,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -19146,7 +19328,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -19187,7 +19369,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -19228,7 +19410,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -19269,7 +19451,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -19310,7 +19492,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M02</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -19325,7 +19507,9 @@
       <c r="H17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>95</v>
       </c>
@@ -19349,7 +19533,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -19390,7 +19574,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M03</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -19431,7 +19615,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P03SL01M03</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -19472,7 +19656,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M07</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -19487,7 +19671,9 @@
       <c r="H21" s="2">
         <v>0.1</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>101</v>
       </c>
@@ -19511,7 +19697,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M07</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -19552,7 +19738,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M04</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -19593,7 +19779,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M06</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -19608,7 +19794,9 @@
       <c r="H24" s="2">
         <v>0.1</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>112</v>
       </c>
@@ -19632,7 +19820,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M05</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -19673,7 +19861,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -19714,7 +19902,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -19755,7 +19943,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -19796,7 +19984,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M01</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -19811,7 +19999,9 @@
       <c r="H29" s="2">
         <v>0.1</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
@@ -19835,7 +20025,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P03SL01M01</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -19850,7 +20040,9 @@
       <c r="H30" s="2">
         <v>0.1</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
@@ -19874,7 +20066,7 @@
         <v>37</v>
       </c>
       <c r="D31" s="8" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M05</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -19913,7 +20105,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="8" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M04</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -19954,7 +20146,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="13" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M06</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -19985,7 +20177,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="8" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -20026,7 +20218,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="8" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -20070,7 +20262,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -20134,7 +20326,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D18" si="0">A2&amp;B2&amp;C2</f>
         <v>P04DW01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -20149,7 +20341,9 @@
       <c r="H2" s="1">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
@@ -20173,7 +20367,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -20214,7 +20408,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M05</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -20229,7 +20423,9 @@
       <c r="H4" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
@@ -20253,7 +20449,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M06</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -20294,7 +20490,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -20309,7 +20505,9 @@
       <c r="H6" s="1">
         <v>87.5</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>87.5</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>91</v>
       </c>
@@ -20333,7 +20531,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -20374,7 +20572,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -20415,7 +20613,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -20456,7 +20654,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M05</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -20471,7 +20669,9 @@
       <c r="H10" s="2">
         <v>0.1</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>104</v>
       </c>
@@ -20497,7 +20697,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M03</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -20512,7 +20712,9 @@
       <c r="H11" s="1">
         <v>0.5</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
@@ -20536,7 +20738,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M04</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -20551,7 +20753,9 @@
       <c r="H12" s="1">
         <v>0.5</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>109</v>
       </c>
@@ -20575,7 +20779,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -20616,7 +20820,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -20657,7 +20861,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -20698,7 +20902,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M07</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -20739,7 +20943,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -20780,7 +20984,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -20821,7 +21025,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -20885,7 +21089,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D13" si="0">A2&amp;B2&amp;C2</f>
         <v>P05EP01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -20926,7 +21130,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P05DW01M03</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -20941,7 +21145,9 @@
       <c r="H3" s="2">
         <v>0.1</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
@@ -20965,7 +21171,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P05DW01M01</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -20980,7 +21186,9 @@
       <c r="H4" s="2">
         <v>62.5</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>62.5</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>91</v>
       </c>
@@ -21004,7 +21212,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -21045,7 +21253,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -21086,7 +21294,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -21127,7 +21335,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -21168,7 +21376,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -21209,7 +21417,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M03</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -21250,7 +21458,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P05DW01M02</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -21265,7 +21473,9 @@
       <c r="H11" s="1">
         <v>62.5</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>62.5</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
@@ -21289,7 +21499,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -21326,7 +21536,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -21365,7 +21575,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H24" sqref="H24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -21429,7 +21639,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D26" si="0">A2&amp;B2&amp;C2</f>
         <v>P06SL01M03</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -21444,7 +21654,9 @@
       <c r="H2" s="1">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -21468,7 +21680,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -21483,7 +21695,9 @@
       <c r="H3" s="1">
         <v>62.5</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>62.5</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -21507,7 +21721,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P06EP01M02</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -21548,7 +21762,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -21589,7 +21803,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M01</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -21604,7 +21818,9 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
@@ -21628,7 +21844,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M04</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -21643,7 +21859,9 @@
       <c r="H7" s="2">
         <v>0.1</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>65</v>
       </c>
@@ -21667,7 +21885,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M05</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -21682,7 +21900,9 @@
       <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>65</v>
       </c>
@@ -21706,7 +21926,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M09</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -21721,7 +21941,9 @@
       <c r="H9" s="1">
         <v>0.5</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
@@ -21745,7 +21967,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -21760,7 +21982,9 @@
       <c r="H10" s="2">
         <v>62.5</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>31.5</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>91</v>
       </c>
@@ -21784,7 +22008,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M03</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -21799,7 +22023,9 @@
       <c r="H11" s="1">
         <v>0.5</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>31.5</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>75</v>
       </c>
@@ -21823,7 +22049,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P06EP01M01</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -21864,7 +22090,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -21905,7 +22131,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -21946,7 +22172,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -21987,7 +22213,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M04</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -22002,7 +22228,9 @@
       <c r="H16" s="1">
         <v>0.5</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>91</v>
       </c>
@@ -22026,7 +22254,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P06RB01M01</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -22065,7 +22293,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M08</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -22080,7 +22308,9 @@
       <c r="H18" s="2">
         <v>0.1</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>58</v>
       </c>
@@ -22104,7 +22334,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M02</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -22145,7 +22375,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -22186,7 +22416,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -22227,7 +22457,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M06</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -22242,7 +22472,9 @@
       <c r="H22" s="1">
         <v>0.5</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>58</v>
       </c>
@@ -22266,7 +22498,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M05</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -22281,7 +22513,9 @@
       <c r="H23" s="2">
         <v>0.1</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
@@ -22305,7 +22539,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M02</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -22320,7 +22554,9 @@
       <c r="H24" s="1">
         <v>0.5</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
@@ -22344,7 +22580,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -22381,7 +22617,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -22420,7 +22656,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -22484,7 +22720,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D25" si="0">A2&amp;B2&amp;C2</f>
         <v>P17SL01M01</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -22499,7 +22735,9 @@
       <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -22523,7 +22761,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -22564,7 +22802,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P17SL01M02</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -22579,7 +22817,9 @@
       <c r="H4" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -22603,7 +22843,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M03</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -22644,7 +22884,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P17DW01M03</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -22659,7 +22899,9 @@
       <c r="H6" s="1">
         <v>0.5</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>72</v>
       </c>
@@ -22683,7 +22925,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P17DW01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -22698,7 +22940,9 @@
       <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
@@ -22722,7 +22966,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P17DW01M04</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -22737,9 +22981,11 @@
       <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>85</v>
@@ -22761,7 +23007,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P17DW01M01</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -22776,7 +23022,9 @@
       <c r="H9" s="4">
         <v>62.5</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>62.5</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>91</v>
       </c>
@@ -22800,7 +23048,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -22841,7 +23089,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -22882,7 +23130,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -22923,7 +23171,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M01</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -22964,7 +23212,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P17EP03M01</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -23005,7 +23253,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -23046,7 +23294,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -23087,7 +23335,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M02</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -23128,7 +23376,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P17EP03M02</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -23169,7 +23417,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -23210,7 +23458,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -23251,7 +23499,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -23292,7 +23540,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P17SL01M04</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -23307,7 +23555,9 @@
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
@@ -23331,7 +23581,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P17SL01M05</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -23346,7 +23596,9 @@
       <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
@@ -23370,7 +23622,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -23411,7 +23663,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -23454,7 +23706,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -23518,7 +23770,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D7" si="0">A2&amp;B2&amp;C2</f>
         <v>P18DW01M03</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -23533,7 +23785,9 @@
       <c r="H2" s="5">
         <v>0.1</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
@@ -23557,7 +23811,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P18DW01M04</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -23572,7 +23826,9 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>53</v>
       </c>
@@ -23596,7 +23852,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P18DW01M01</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -23611,7 +23867,9 @@
       <c r="H4" s="1">
         <v>87.5</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>87.5</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>91</v>
       </c>
@@ -23635,7 +23893,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P18EP01M01</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -23674,7 +23932,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P18DW01M02</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -23689,7 +23947,9 @@
       <c r="H6" s="5">
         <v>0.1</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>0.1</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
@@ -23713,7 +23973,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P18EP01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -23754,7 +24014,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
@@ -23818,7 +24078,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D14" si="0">A2&amp;B2&amp;C2</f>
         <v>P19SL01M08</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -23833,7 +24093,9 @@
       <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
@@ -23857,7 +24119,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P19DW01M02</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -23872,7 +24134,9 @@
       <c r="H3" s="2">
         <v>0.1</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
@@ -23896,7 +24160,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M07</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -23911,7 +24175,9 @@
       <c r="H4" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
@@ -23935,7 +24201,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M04</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -23950,7 +24216,9 @@
       <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>76</v>
       </c>
@@ -23974,7 +24242,7 @@
         <v>87</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M0x</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -23989,7 +24257,9 @@
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>53</v>
       </c>
@@ -24013,7 +24283,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P19DW01M01</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -24028,7 +24298,9 @@
       <c r="H7" s="1">
         <v>87.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>87.5</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
@@ -24052,7 +24324,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P19EP01M01</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -24093,7 +24365,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P19DW01M05</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -24108,7 +24380,9 @@
       <c r="H9" s="2">
         <v>0.1</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>53</v>
       </c>
@@ -24132,7 +24406,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M01</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -24147,7 +24421,9 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
@@ -24171,7 +24447,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M02</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -24186,7 +24462,9 @@
       <c r="H11" s="1">
         <v>15</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>116</v>
       </c>
@@ -24210,7 +24488,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P19DW01M03</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -24225,7 +24503,9 @@
       <c r="H12" s="2">
         <v>0.1</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>121</v>
       </c>
@@ -24249,7 +24529,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M03</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -24264,7 +24544,9 @@
       <c r="H13" s="1">
         <v>15</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>15</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>78</v>
       </c>
@@ -24288,7 +24570,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M06</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -24303,7 +24585,9 @@
       <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>53</v>
       </c>

--- a/Aufnahmebogen/bedeckung_pro_plot.xlsx
+++ b/Aufnahmebogen/bedeckung_pro_plot.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9359" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9321" uniqueCount="140">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -31206,7 +31206,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D65" si="0">A2&amp;B2&amp;C2</f>
         <v>P03SL01M02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -31244,7 +31244,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M03</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -31282,7 +31282,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P17SL01M01</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -31320,7 +31320,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M08</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -31358,7 +31358,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P22SL01M03</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -31396,7 +31396,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P23SL01M02</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -31434,7 +31434,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P24SL01M03</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -31472,7 +31472,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P28SL01M01</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -31510,7 +31510,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M02</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -31548,7 +31548,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M04</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -31586,7 +31586,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M03</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -31624,7 +31624,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M02</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -31662,7 +31662,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M04</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -31700,7 +31700,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M03</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -31738,7 +31738,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M02</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -31776,7 +31776,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M03</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -31814,7 +31814,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M02</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -31852,7 +31852,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M02</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -31890,7 +31890,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -31928,7 +31928,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M02</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -31966,7 +31966,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P06EP01M02</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -32004,7 +32004,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -32042,7 +32042,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M01</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -32080,7 +32080,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -32118,7 +32118,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P17SL01M02</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -32156,7 +32156,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P19DW01M02</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -32192,7 +32192,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P22DW01M02</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -32230,7 +32230,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M02</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -32268,7 +32268,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P22SL01M01</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -32306,7 +32306,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P23DW01M01</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -32344,7 +32344,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M02</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -32382,7 +32382,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P23SL01M01</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -32420,7 +32420,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M03</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -32458,7 +32458,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M05</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -32496,7 +32496,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>P24SL01M02</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -32534,7 +32534,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M02</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -32572,7 +32572,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>P26DW01M02</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -32610,7 +32610,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M04</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -32648,7 +32648,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M03</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -32686,7 +32686,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>P28DW01M02</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -32724,7 +32724,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>P28EP01M02</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -32762,7 +32762,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>P28SL01M02</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -32800,7 +32800,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M03</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -32838,7 +32838,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M04</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -32876,7 +32876,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M06</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -32914,7 +32914,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>P21EP01M02</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -32952,7 +32952,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M04</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -32990,7 +32990,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M02</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -33028,7 +33028,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M04</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -33066,7 +33066,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M05</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -33104,7 +33104,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M05</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -33142,7 +33142,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M04</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -33180,7 +33180,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M05</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -33218,7 +33218,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M03</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -33256,7 +33256,7 @@
         <v>70</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M07</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -33294,7 +33294,7 @@
         <v>21</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M02</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -33332,7 +33332,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M02</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -33370,7 +33370,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="0"/>
         <v>P21SL01M03</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -33408,7 +33408,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M05</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -33446,7 +33446,7 @@
         <v>32</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M01</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -33484,7 +33484,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="0"/>
         <v>P24EP01M03</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -33522,7 +33522,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M03</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -33560,7 +33560,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M03</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -33598,7 +33598,7 @@
         <v>21</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="0"/>
         <v>P27DW01M02</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -33636,7 +33636,7 @@
         <v>37</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D129" si="1">A66&amp;B66&amp;C66</f>
         <v>P27SL01M05</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -33674,7 +33674,7 @@
         <v>37</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M05</v>
       </c>
       <c r="E67" s="6" t="s">
@@ -33712,7 +33712,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M03</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -33750,7 +33750,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>A69&amp;B69&amp;C69</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M09</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -33788,7 +33788,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>A70&amp;B70&amp;C70</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M03</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -33826,7 +33826,7 @@
         <v>37</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>A71&amp;B71&amp;C71</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M05</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -33864,7 +33864,7 @@
         <v>32</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>A72&amp;B72&amp;C72</f>
+        <f t="shared" si="1"/>
         <v>P26SL01M01</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -33902,7 +33902,7 @@
         <v>25</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>A73&amp;B73&amp;C73</f>
+        <f t="shared" si="1"/>
         <v>P28SL01M03</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -33940,7 +33940,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>A74&amp;B74&amp;C74</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M02</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -33978,7 +33978,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f>A75&amp;B75&amp;C75</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M03</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -34016,7 +34016,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f>A76&amp;B76&amp;C76</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M04</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -34054,7 +34054,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>A77&amp;B77&amp;C77</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M?</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -34092,7 +34092,7 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>A78&amp;B78&amp;C78</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M04</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -34130,7 +34130,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>A79&amp;B79&amp;C79</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M02</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -34168,7 +34168,7 @@
         <v>21</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>A80&amp;B80&amp;C80</f>
+        <f t="shared" si="1"/>
         <v>P25EP03M02</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -34206,7 +34206,7 @@
         <v>34</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>A81&amp;B81&amp;C81</f>
+        <f t="shared" si="1"/>
         <v>P25SL01M08</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -34244,7 +34244,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>A82&amp;B82&amp;C82</f>
+        <f t="shared" si="1"/>
         <v>P26SL01M02</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -34282,7 +34282,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>A83&amp;B83&amp;C83</f>
+        <f t="shared" si="1"/>
         <v>P27SL01M06</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -34320,7 +34320,7 @@
         <v>61</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>A84&amp;B84&amp;C84</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M06</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -34358,7 +34358,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>A85&amp;B85&amp;C85</f>
+        <f t="shared" si="1"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -34396,7 +34396,7 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>A86&amp;B86&amp;C86</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M04</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -34434,7 +34434,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>A87&amp;B87&amp;C87</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M04</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -34472,7 +34472,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="str">
-        <f>A88&amp;B88&amp;C88</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M0x</v>
       </c>
       <c r="E88" s="6" t="s">
@@ -34510,7 +34510,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>A89&amp;B89&amp;C89</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -34548,7 +34548,7 @@
         <v>21</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>A90&amp;B90&amp;C90</f>
+        <f t="shared" si="1"/>
         <v>P25SL01M02</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -34586,7 +34586,7 @@
         <v>32</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>A91&amp;B91&amp;C91</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M01</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -34624,7 +34624,7 @@
         <v>32</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>A92&amp;B92&amp;C92</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -34662,7 +34662,7 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>A93&amp;B93&amp;C93</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -34700,7 +34700,7 @@
         <v>32</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>A94&amp;B94&amp;C94</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -34738,7 +34738,7 @@
         <v>32</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>A95&amp;B95&amp;C95</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -34776,7 +34776,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>A96&amp;B96&amp;C96</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M03</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -34814,7 +34814,7 @@
         <v>32</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>A97&amp;B97&amp;C97</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -34852,7 +34852,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>A98&amp;B98&amp;C98</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M02</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -34890,7 +34890,7 @@
         <v>32</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>A99&amp;B99&amp;C99</f>
+        <f t="shared" si="1"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -34928,7 +34928,7 @@
         <v>32</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>A100&amp;B100&amp;C100</f>
+        <f t="shared" si="1"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -34966,7 +34966,7 @@
         <v>32</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f>A101&amp;B101&amp;C101</f>
+        <f t="shared" si="1"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -35004,7 +35004,7 @@
         <v>32</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>A102&amp;B102&amp;C102</f>
+        <f t="shared" si="1"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -35042,7 +35042,7 @@
         <v>32</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>A103&amp;B103&amp;C103</f>
+        <f t="shared" si="1"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -35080,7 +35080,7 @@
         <v>32</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>A104&amp;B104&amp;C104</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M01</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -35118,7 +35118,7 @@
         <v>32</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f>A105&amp;B105&amp;C105</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -35156,7 +35156,7 @@
         <v>32</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f>A106&amp;B106&amp;C106</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -35194,7 +35194,7 @@
         <v>32</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f>A107&amp;B107&amp;C107</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -35232,7 +35232,7 @@
         <v>32</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f>A108&amp;B108&amp;C108</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M01</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -35270,7 +35270,7 @@
         <v>32</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f>A109&amp;B109&amp;C109</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -35308,7 +35308,7 @@
         <v>32</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f>A110&amp;B110&amp;C110</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -35346,7 +35346,7 @@
         <v>32</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f>A111&amp;B111&amp;C111</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M01</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -35384,7 +35384,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f>A112&amp;B112&amp;C112</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M03</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -35422,7 +35422,7 @@
         <v>32</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f>A113&amp;B113&amp;C113</f>
+        <f t="shared" si="1"/>
         <v>P06EP01M01</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -35460,7 +35460,7 @@
         <v>32</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f>A114&amp;B114&amp;C114</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -35498,7 +35498,7 @@
         <v>32</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>A115&amp;B115&amp;C115</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -35536,7 +35536,7 @@
         <v>32</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>A116&amp;B116&amp;C116</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -35574,7 +35574,7 @@
         <v>14</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>A117&amp;B117&amp;C117</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M04</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -35612,7 +35612,7 @@
         <v>32</v>
       </c>
       <c r="D118" s="6" t="str">
-        <f>A118&amp;B118&amp;C118</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M01</v>
       </c>
       <c r="E118" s="6" t="s">
@@ -35650,7 +35650,7 @@
         <v>32</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>A119&amp;B119&amp;C119</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -35688,7 +35688,7 @@
         <v>32</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>A120&amp;B120&amp;C120</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -35726,7 +35726,7 @@
         <v>32</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>A121&amp;B121&amp;C121</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -35764,7 +35764,7 @@
         <v>32</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>A122&amp;B122&amp;C122</f>
+        <f t="shared" si="1"/>
         <v>P17EP02M01</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -35802,7 +35802,7 @@
         <v>32</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>A123&amp;B123&amp;C123</f>
+        <f t="shared" si="1"/>
         <v>P17EP03M01</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -35840,7 +35840,7 @@
         <v>32</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>A124&amp;B124&amp;C124</f>
+        <f t="shared" si="1"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -35878,7 +35878,7 @@
         <v>32</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>A125&amp;B125&amp;C125</f>
+        <f t="shared" si="1"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -35916,7 +35916,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>A126&amp;B126&amp;C126</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M01</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -35954,7 +35954,7 @@
         <v>32</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>A127&amp;B127&amp;C127</f>
+        <f t="shared" si="1"/>
         <v>P18EP01M01</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -35990,7 +35990,7 @@
         <v>32</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>A128&amp;B128&amp;C128</f>
+        <f t="shared" si="1"/>
         <v>P19DW01M01</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -36028,7 +36028,7 @@
         <v>32</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>A129&amp;B129&amp;C129</f>
+        <f t="shared" si="1"/>
         <v>P19EP01M01</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -36066,7 +36066,7 @@
         <v>32</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f>A130&amp;B130&amp;C130</f>
+        <f t="shared" ref="D130:D193" si="2">A130&amp;B130&amp;C130</f>
         <v>P20DW01M01</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -36104,7 +36104,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f>A131&amp;B131&amp;C131</f>
+        <f t="shared" si="2"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -36142,7 +36142,7 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f>A132&amp;B132&amp;C132</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M04</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -36180,7 +36180,7 @@
         <v>32</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>A133&amp;B133&amp;C133</f>
+        <f t="shared" si="2"/>
         <v>P21EP01M01</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -36218,7 +36218,7 @@
         <v>32</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f>A134&amp;B134&amp;C134</f>
+        <f t="shared" si="2"/>
         <v>P22DW01M01</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -36256,7 +36256,7 @@
         <v>32</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f>A135&amp;B135&amp;C135</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M01</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -36294,7 +36294,7 @@
         <v>32</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f>A136&amp;B136&amp;C136</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -36332,7 +36332,7 @@
         <v>32</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f>A137&amp;B137&amp;C137</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -36370,7 +36370,7 @@
         <v>14</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f>A138&amp;B138&amp;C138</f>
+        <f t="shared" si="2"/>
         <v>P22SL01M04</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -36408,7 +36408,7 @@
         <v>21</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f>A139&amp;B139&amp;C139</f>
+        <f t="shared" si="2"/>
         <v>P23DW01M02</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -36446,7 +36446,7 @@
         <v>32</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f>A140&amp;B140&amp;C140</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -36484,7 +36484,7 @@
         <v>32</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f>A141&amp;B141&amp;C141</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -36522,7 +36522,7 @@
         <v>32</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f>A142&amp;B142&amp;C142</f>
+        <f t="shared" si="2"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -36560,7 +36560,7 @@
         <v>32</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f>A143&amp;B143&amp;C143</f>
+        <f t="shared" si="2"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -36598,7 +36598,7 @@
         <v>21</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f>A144&amp;B144&amp;C144</f>
+        <f t="shared" si="2"/>
         <v>P24DW01M02</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -36636,7 +36636,7 @@
         <v>32</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f>A145&amp;B145&amp;C145</f>
+        <f t="shared" si="2"/>
         <v>P24EP01M01</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -36674,7 +36674,7 @@
         <v>61</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f>A146&amp;B146&amp;C146</f>
+        <f t="shared" si="2"/>
         <v>P24EP02M06</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -36712,7 +36712,7 @@
         <v>70</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f>A147&amp;B147&amp;C147</f>
+        <f t="shared" si="2"/>
         <v>P24EP02M07</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -36750,7 +36750,7 @@
         <v>32</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f>A148&amp;B148&amp;C148</f>
+        <f t="shared" si="2"/>
         <v>P25EP01M01</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -36788,7 +36788,7 @@
         <v>32</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f>A149&amp;B149&amp;C149</f>
+        <f t="shared" si="2"/>
         <v>P25EP02M01</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -36826,7 +36826,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f>A150&amp;B150&amp;C150</f>
+        <f t="shared" si="2"/>
         <v>P25EP02M03</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -36864,7 +36864,7 @@
         <v>32</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f>A151&amp;B151&amp;C151</f>
+        <f t="shared" si="2"/>
         <v>P25EP03M01</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -36902,7 +36902,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f>A152&amp;B152&amp;C152</f>
+        <f t="shared" si="2"/>
         <v>P25EP03M03</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -36940,7 +36940,7 @@
         <v>32</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f>A153&amp;B153&amp;C153</f>
+        <f t="shared" si="2"/>
         <v>P26DW01M01</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -36978,7 +36978,7 @@
         <v>32</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f>A154&amp;B154&amp;C154</f>
+        <f t="shared" si="2"/>
         <v>P26EP01M01</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -37016,7 +37016,7 @@
         <v>21</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f>A155&amp;B155&amp;C155</f>
+        <f t="shared" si="2"/>
         <v>P26EP01M02</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -37054,7 +37054,7 @@
         <v>32</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f>A156&amp;B156&amp;C156</f>
+        <f t="shared" si="2"/>
         <v>P26EP02M01</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -37092,7 +37092,7 @@
         <v>32</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f>A157&amp;B157&amp;C157</f>
+        <f t="shared" si="2"/>
         <v>P27DW01M01</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -37131,7 +37131,7 @@
         <v>32</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f>A158&amp;B158&amp;C158</f>
+        <f t="shared" si="2"/>
         <v>P27EP01M01</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -37169,7 +37169,7 @@
         <v>70</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f>A159&amp;B159&amp;C159</f>
+        <f t="shared" si="2"/>
         <v>P27SL01M07</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -37207,7 +37207,7 @@
         <v>32</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f>A160&amp;B160&amp;C160</f>
+        <f t="shared" si="2"/>
         <v>P28DW01M01</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -37245,7 +37245,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f>A161&amp;B161&amp;C161</f>
+        <f t="shared" si="2"/>
         <v>P28EP01M01</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -37283,7 +37283,7 @@
         <v>32</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f>A162&amp;B162&amp;C162</f>
+        <f t="shared" si="2"/>
         <v>P29DW01M01</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -37321,7 +37321,7 @@
         <v>32</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f>A163&amp;B163&amp;C163</f>
+        <f t="shared" si="2"/>
         <v>P29EP01M01</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -37357,7 +37357,7 @@
         <v>32</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f>A164&amp;B164&amp;C164</f>
+        <f t="shared" si="2"/>
         <v>P29EP02M01</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -37395,7 +37395,7 @@
         <v>97</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f>A165&amp;B165&amp;C165</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M0X</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -37433,7 +37433,7 @@
         <v>21</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f>A166&amp;B166&amp;C166</f>
+        <f t="shared" si="2"/>
         <v>P03DW01M02</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -37471,7 +37471,7 @@
         <v>32</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f>A167&amp;B167&amp;C167</f>
+        <f t="shared" si="2"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -37509,7 +37509,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="3" t="str">
-        <f>A168&amp;B168&amp;C168</f>
+        <f t="shared" si="2"/>
         <v>P03EP02M03</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -37547,7 +37547,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f>A169&amp;B169&amp;C169</f>
+        <f t="shared" si="2"/>
         <v>P03SL01M03</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -37585,7 +37585,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f>A170&amp;B170&amp;C170</f>
+        <f t="shared" si="2"/>
         <v>P23EP02M03</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -37623,7 +37623,7 @@
         <v>70</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f>A171&amp;B171&amp;C171</f>
+        <f t="shared" si="2"/>
         <v>P03DW01M07</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -37661,7 +37661,7 @@
         <v>70</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f>A172&amp;B172&amp;C172</f>
+        <f t="shared" si="2"/>
         <v>P03EP01M07</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -37699,7 +37699,7 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f>A173&amp;B173&amp;C173</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M04</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -37737,7 +37737,7 @@
         <v>37</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f>A174&amp;B174&amp;C174</f>
+        <f t="shared" si="2"/>
         <v>P04EP01M05</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -37775,7 +37775,7 @@
         <v>37</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f>A175&amp;B175&amp;C175</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -37813,7 +37813,7 @@
         <v>37</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f>A176&amp;B176&amp;C176</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -37851,7 +37851,7 @@
         <v>37</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f>A177&amp;B177&amp;C177</f>
+        <f t="shared" si="2"/>
         <v>P02DW01M05</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -37889,7 +37889,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f>A178&amp;B178&amp;C178</f>
+        <f t="shared" si="2"/>
         <v>P04DW01M03</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -37927,7 +37927,7 @@
         <v>34</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f>A179&amp;B179&amp;C179</f>
+        <f t="shared" si="2"/>
         <v>P06SL01M08</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -37965,7 +37965,7 @@
         <v>108</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f>A180&amp;B180&amp;C180</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -38003,7 +38003,7 @@
         <v>25</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f>A181&amp;B181&amp;C181</f>
+        <f t="shared" si="2"/>
         <v>P02DW01M03</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -38041,7 +38041,7 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="str">
-        <f>A182&amp;B182&amp;C182</f>
+        <f t="shared" si="2"/>
         <v>P04DW01M04</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -38079,7 +38079,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="3" t="str">
-        <f>A183&amp;B183&amp;C183</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M02</v>
       </c>
       <c r="E183" s="3" t="s">
@@ -38117,7 +38117,7 @@
         <v>21</v>
       </c>
       <c r="D184" s="3" t="str">
-        <f>A184&amp;B184&amp;C184</f>
+        <f t="shared" si="2"/>
         <v>P17EP03M02</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -38155,7 +38155,7 @@
         <v>25</v>
       </c>
       <c r="D185" s="3" t="str">
-        <f>A185&amp;B185&amp;C185</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M03</v>
       </c>
       <c r="E185" s="3" t="s">
@@ -38193,7 +38193,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="3" t="str">
-        <f>A186&amp;B186&amp;C186</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M03</v>
       </c>
       <c r="E186" s="3" t="s">
@@ -38231,7 +38231,7 @@
         <v>21</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f>A187&amp;B187&amp;C187</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E187" s="3" t="s">
@@ -38269,7 +38269,7 @@
         <v>21</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f>A188&amp;B188&amp;C188</f>
+        <f t="shared" si="2"/>
         <v>P24EP01M02</v>
       </c>
       <c r="E188" s="3" t="s">
@@ -38307,7 +38307,7 @@
         <v>21</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f>A189&amp;B189&amp;C189</f>
+        <f t="shared" si="2"/>
         <v>P27EP01M02</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -38345,7 +38345,7 @@
         <v>61</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f>A190&amp;B190&amp;C190</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M06</v>
       </c>
       <c r="E190" s="3" t="s">
@@ -38383,7 +38383,7 @@
         <v>61</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f>A191&amp;B191&amp;C191</f>
+        <f t="shared" si="2"/>
         <v>P03DW01M06</v>
       </c>
       <c r="E191" s="3" t="s">
@@ -38421,7 +38421,7 @@
         <v>37</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f>A192&amp;B192&amp;C192</f>
+        <f t="shared" si="2"/>
         <v>P03EP02M05</v>
       </c>
       <c r="E192" s="3" t="s">
@@ -38459,7 +38459,7 @@
         <v>21</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f>A193&amp;B193&amp;C193</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E193" s="3" t="s">
@@ -38497,7 +38497,7 @@
         <v>21</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f>A194&amp;B194&amp;C194</f>
+        <f t="shared" ref="D194:D257" si="3">A194&amp;B194&amp;C194</f>
         <v>P03EP03M02</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -38535,7 +38535,7 @@
         <v>21</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f>A195&amp;B195&amp;C195</f>
+        <f t="shared" si="3"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -38573,7 +38573,7 @@
         <v>25</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f>A196&amp;B196&amp;C196</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E196" s="3" t="s">
@@ -38611,7 +38611,7 @@
         <v>25</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f>A197&amp;B197&amp;C197</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -38649,7 +38649,7 @@
         <v>25</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f>A198&amp;B198&amp;C198</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -38687,7 +38687,7 @@
         <v>21</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f>A199&amp;B199&amp;C199</f>
+        <f t="shared" si="3"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E199" s="3" t="s">
@@ -38725,7 +38725,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f>A200&amp;B200&amp;C200</f>
+        <f t="shared" si="3"/>
         <v>P05EP01M03</v>
       </c>
       <c r="E200" s="3" t="s">
@@ -38763,7 +38763,7 @@
         <v>21</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f>A201&amp;B201&amp;C201</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M02</v>
       </c>
       <c r="E201" s="3" t="s">
@@ -38801,7 +38801,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f>A202&amp;B202&amp;C202</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E202" s="3" t="s">
@@ -38839,7 +38839,7 @@
         <v>25</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f>A203&amp;B203&amp;C203</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E203" s="3" t="s">
@@ -38877,7 +38877,7 @@
         <v>21</v>
       </c>
       <c r="D204" s="3" t="str">
-        <f>A204&amp;B204&amp;C204</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E204" s="3" t="s">
@@ -38915,7 +38915,7 @@
         <v>21</v>
       </c>
       <c r="D205" s="3" t="str">
-        <f>A205&amp;B205&amp;C205</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E205" s="3" t="s">
@@ -38953,7 +38953,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="3" t="str">
-        <f>A206&amp;B206&amp;C206</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -38991,7 +38991,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="3" t="str">
-        <f>A207&amp;B207&amp;C207</f>
+        <f t="shared" si="3"/>
         <v>P21DW01M03</v>
       </c>
       <c r="E207" s="3" t="s">
@@ -39029,7 +39029,7 @@
         <v>21</v>
       </c>
       <c r="D208" s="3" t="str">
-        <f>A208&amp;B208&amp;C208</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E208" s="3" t="s">
@@ -39067,7 +39067,7 @@
         <v>25</v>
       </c>
       <c r="D209" s="3" t="str">
-        <f>A209&amp;B209&amp;C209</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M03</v>
       </c>
       <c r="E209" s="3" t="s">
@@ -39105,7 +39105,7 @@
         <v>21</v>
       </c>
       <c r="D210" s="3" t="str">
-        <f>A210&amp;B210&amp;C210</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E210" s="3" t="s">
@@ -39143,7 +39143,7 @@
         <v>21</v>
       </c>
       <c r="D211" s="3" t="str">
-        <f>A211&amp;B211&amp;C211</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E211" s="3" t="s">
@@ -39181,7 +39181,7 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="str">
-        <f>A212&amp;B212&amp;C212</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M04</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -39219,7 +39219,7 @@
         <v>14</v>
       </c>
       <c r="D213" s="3" t="str">
-        <f>A213&amp;B213&amp;C213</f>
+        <f t="shared" si="3"/>
         <v>P25EP03M04</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -39257,7 +39257,7 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="str">
-        <f>A214&amp;B214&amp;C214</f>
+        <f t="shared" si="3"/>
         <v>P17SL01M04</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -39295,7 +39295,7 @@
         <v>37</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f>A215&amp;B215&amp;C215</f>
+        <f t="shared" si="3"/>
         <v>P19DW01M05</v>
       </c>
       <c r="E215" s="3" t="s">
@@ -39333,7 +39333,7 @@
         <v>25</v>
       </c>
       <c r="D216" s="3" t="str">
-        <f>A216&amp;B216&amp;C216</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M03</v>
       </c>
       <c r="E216" s="3" t="s">
@@ -39371,7 +39371,7 @@
         <v>37</v>
       </c>
       <c r="D217" s="3" t="str">
-        <f>A217&amp;B217&amp;C217</f>
+        <f t="shared" si="3"/>
         <v>P17SL01M05</v>
       </c>
       <c r="E217" s="3" t="s">
@@ -39409,7 +39409,7 @@
         <v>61</v>
       </c>
       <c r="D218" s="3" t="str">
-        <f>A218&amp;B218&amp;C218</f>
+        <f t="shared" si="3"/>
         <v>P06SL01M06</v>
       </c>
       <c r="E218" s="3" t="s">
@@ -39447,7 +39447,7 @@
         <v>21</v>
       </c>
       <c r="D219" s="3" t="str">
-        <f>A219&amp;B219&amp;C219</f>
+        <f t="shared" si="3"/>
         <v>P27SL01M02</v>
       </c>
       <c r="E219" s="3" t="s">
@@ -39485,7 +39485,7 @@
         <v>21</v>
       </c>
       <c r="D220" s="3" t="str">
-        <f>A220&amp;B220&amp;C220</f>
+        <f t="shared" si="3"/>
         <v>P05DW01M02</v>
       </c>
       <c r="E220" s="3" t="s">
@@ -39523,7 +39523,7 @@
         <v>21</v>
       </c>
       <c r="D221" s="3" t="str">
-        <f>A221&amp;B221&amp;C221</f>
+        <f t="shared" si="3"/>
         <v>P18DW01M02</v>
       </c>
       <c r="E221" s="3" t="s">
@@ -39561,7 +39561,7 @@
         <v>21</v>
       </c>
       <c r="D222" s="3" t="str">
-        <f>A222&amp;B222&amp;C222</f>
+        <f t="shared" si="3"/>
         <v>P18EP01M02</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -39597,7 +39597,7 @@
         <v>61</v>
       </c>
       <c r="D223" s="3" t="str">
-        <f>A223&amp;B223&amp;C223</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M06</v>
       </c>
       <c r="E223" s="3" t="s">
@@ -39635,7 +39635,7 @@
         <v>32</v>
       </c>
       <c r="D224" s="3" t="str">
-        <f>A224&amp;B224&amp;C224</f>
+        <f t="shared" si="3"/>
         <v>P03DW01M01</v>
       </c>
       <c r="E224" s="3" t="s">
@@ -39673,7 +39673,7 @@
         <v>32</v>
       </c>
       <c r="D225" s="3" t="str">
-        <f>A225&amp;B225&amp;C225</f>
+        <f t="shared" si="3"/>
         <v>P03SL01M01</v>
       </c>
       <c r="E225" s="3" t="s">
@@ -39711,7 +39711,7 @@
         <v>37</v>
       </c>
       <c r="D226" s="3" t="str">
-        <f>A226&amp;B226&amp;C226</f>
+        <f t="shared" si="3"/>
         <v>P06DW01M05</v>
       </c>
       <c r="E226" s="3" t="s">
@@ -39749,7 +39749,7 @@
         <v>21</v>
       </c>
       <c r="D227" s="3" t="str">
-        <f>A227&amp;B227&amp;C227</f>
+        <f t="shared" si="3"/>
         <v>P06SL01M02</v>
       </c>
       <c r="E227" s="3" t="s">
@@ -39787,7 +39787,7 @@
         <v>32</v>
       </c>
       <c r="D228" s="3" t="str">
-        <f>A228&amp;B228&amp;C228</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M01</v>
       </c>
       <c r="E228" s="3" t="s">
@@ -39825,7 +39825,7 @@
         <v>32</v>
       </c>
       <c r="D229" s="3" t="str">
-        <f>A229&amp;B229&amp;C229</f>
+        <f t="shared" si="3"/>
         <v>P21DW01M01</v>
       </c>
       <c r="E229" s="3" t="s">
@@ -39863,7 +39863,7 @@
         <v>21</v>
       </c>
       <c r="D230" s="3" t="str">
-        <f>A230&amp;B230&amp;C230</f>
+        <f t="shared" si="3"/>
         <v>P22SL01M02</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -39901,7 +39901,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="3" t="str">
-        <f>A231&amp;B231&amp;C231</f>
+        <f t="shared" si="3"/>
         <v>P23SL01M03</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -39939,7 +39939,7 @@
         <v>32</v>
       </c>
       <c r="D232" s="3" t="str">
-        <f>A232&amp;B232&amp;C232</f>
+        <f t="shared" si="3"/>
         <v>P24SL01M01</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -39977,7 +39977,7 @@
         <v>14</v>
       </c>
       <c r="D233" s="3" t="str">
-        <f>A233&amp;B233&amp;C233</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M04</v>
       </c>
       <c r="E233" s="3" t="s">
@@ -40015,7 +40015,7 @@
         <v>70</v>
       </c>
       <c r="D234" s="3" t="str">
-        <f>A234&amp;B234&amp;C234</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M07</v>
       </c>
       <c r="E234" s="3" t="s">
@@ -40053,7 +40053,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="3" t="str">
-        <f>A235&amp;B235&amp;C235</f>
+        <f t="shared" si="3"/>
         <v>P26SL01M03</v>
       </c>
       <c r="E235" s="3" t="s">
@@ -40091,7 +40091,7 @@
         <v>119</v>
       </c>
       <c r="D236" s="3" t="str">
-        <f>A236&amp;B236&amp;C236</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">P27SL01M01 </v>
       </c>
       <c r="E236" s="3" t="s">
@@ -40129,7 +40129,7 @@
         <v>32</v>
       </c>
       <c r="D237" s="3" t="str">
-        <f>A237&amp;B237&amp;C237</f>
+        <f t="shared" si="3"/>
         <v>P29SL01M01</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -40167,7 +40167,7 @@
         <v>21</v>
       </c>
       <c r="D238" s="3" t="str">
-        <f>A238&amp;B238&amp;C238</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M02</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -40205,7 +40205,7 @@
         <v>25</v>
       </c>
       <c r="D239" s="3" t="str">
-        <f>A239&amp;B239&amp;C239</f>
+        <f t="shared" si="3"/>
         <v>P19DW01M03</v>
       </c>
       <c r="E239" s="3" t="s">
@@ -40243,7 +40243,7 @@
         <v>25</v>
       </c>
       <c r="D240" s="3" t="str">
-        <f>A240&amp;B240&amp;C240</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M03</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -40281,7 +40281,7 @@
         <v>14</v>
       </c>
       <c r="D241" s="3" t="str">
-        <f>A241&amp;B241&amp;C241</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M04</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -40319,7 +40319,7 @@
         <v>32</v>
       </c>
       <c r="D242" s="3" t="str">
-        <f>A242&amp;B242&amp;C242</f>
+        <f t="shared" si="3"/>
         <v>P21SL01M01</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -40357,7 +40357,7 @@
         <v>32</v>
       </c>
       <c r="D243" s="3" t="str">
-        <f>A243&amp;B243&amp;C243</f>
+        <f t="shared" si="3"/>
         <v>p25DW01M01</v>
       </c>
       <c r="E243" s="3" t="s">
@@ -40395,7 +40395,7 @@
         <v>32</v>
       </c>
       <c r="D244" s="3" t="str">
-        <f>A244&amp;B244&amp;C244</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M01</v>
       </c>
       <c r="E244" s="3" t="s">
@@ -40433,7 +40433,7 @@
         <v>14</v>
       </c>
       <c r="D245" s="3" t="str">
-        <f>A245&amp;B245&amp;C245</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M04</v>
       </c>
       <c r="E245" s="3" t="s">
@@ -40471,7 +40471,7 @@
         <v>25</v>
       </c>
       <c r="D246" s="3" t="str">
-        <f>A246&amp;B246&amp;C246</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E246" s="3" t="s">
@@ -40509,7 +40509,7 @@
         <v>61</v>
       </c>
       <c r="D247" s="3" t="str">
-        <f>A247&amp;B247&amp;C247</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M06</v>
       </c>
       <c r="E247" s="3" t="s">
@@ -40547,7 +40547,7 @@
         <v>32</v>
       </c>
       <c r="D248" s="3" t="str">
-        <f>A248&amp;B248&amp;C248</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M01</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -40585,7 +40585,7 @@
         <v>37</v>
       </c>
       <c r="D249" s="3" t="str">
-        <f>A249&amp;B249&amp;C249</f>
+        <f t="shared" si="3"/>
         <v>P21DW01M05</v>
       </c>
       <c r="E249" s="3" t="s">
@@ -40623,7 +40623,7 @@
         <v>125</v>
       </c>
       <c r="D250" s="3" t="str">
-        <f>A250&amp;B250&amp;C250</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E250" s="3" t="s">
@@ -40661,7 +40661,7 @@
         <v>37</v>
       </c>
       <c r="D251" s="3" t="str">
-        <f>A251&amp;B251&amp;C251</f>
+        <f t="shared" si="3"/>
         <v>P25SL01M05</v>
       </c>
       <c r="E251" s="3" t="s">
@@ -40699,7 +40699,7 @@
         <v>14</v>
       </c>
       <c r="D252" s="3" t="str">
-        <f>A252&amp;B252&amp;C252</f>
+        <f t="shared" si="3"/>
         <v>P27SL01M04</v>
       </c>
       <c r="E252" s="3" t="s">
@@ -40737,7 +40737,7 @@
         <v>37</v>
       </c>
       <c r="D253" s="3" t="str">
-        <f>A253&amp;B253&amp;C253</f>
+        <f t="shared" si="3"/>
         <v>P25DW01M05</v>
       </c>
       <c r="E253" s="3" t="s">
@@ -40775,7 +40775,7 @@
         <v>21</v>
       </c>
       <c r="D254" s="3" t="str">
-        <f>A254&amp;B254&amp;C254</f>
+        <f t="shared" si="3"/>
         <v>P25EP02M02</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -40813,7 +40813,7 @@
         <v>14</v>
       </c>
       <c r="D255" s="3" t="str">
-        <f>A255&amp;B255&amp;C255</f>
+        <f t="shared" si="3"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E255" s="3" t="s">
@@ -40851,7 +40851,7 @@
         <v>14</v>
       </c>
       <c r="D256" s="3" t="str">
-        <f>A256&amp;B256&amp;C256</f>
+        <f t="shared" si="3"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E256" s="3" t="s">
@@ -40889,7 +40889,7 @@
         <v>70</v>
       </c>
       <c r="D257" s="3" t="str">
-        <f>A257&amp;B257&amp;C257</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M07</v>
       </c>
       <c r="E257" s="3" t="s">
@@ -40927,7 +40927,7 @@
         <v>25</v>
       </c>
       <c r="D258" s="3" t="str">
-        <f>A258&amp;B258&amp;C258</f>
+        <f t="shared" ref="D258:D321" si="4">A258&amp;B258&amp;C258</f>
         <v>P02EP02M03</v>
       </c>
       <c r="E258" s="3" t="s">
@@ -40961,7 +40961,7 @@
         <v>136</v>
       </c>
       <c r="D259" s="6" t="str">
-        <f>A259&amp;B259&amp;C259</f>
+        <f t="shared" si="4"/>
         <v>P02EP02M0Y</v>
       </c>
       <c r="E259" s="6" t="s">
@@ -40996,7 +40996,7 @@
         <v>37</v>
       </c>
       <c r="D260" s="8" t="str">
-        <f>A260&amp;B260&amp;C260</f>
+        <f t="shared" si="4"/>
         <v>P03EP01M05</v>
       </c>
       <c r="E260" s="8" t="s">
@@ -41030,7 +41030,7 @@
         <v>14</v>
       </c>
       <c r="D261" s="8" t="str">
-        <f>A261&amp;B261&amp;C261</f>
+        <f t="shared" si="4"/>
         <v>P03EP02M04</v>
       </c>
       <c r="E261" s="8" t="s">
@@ -41066,7 +41066,7 @@
         <v>61</v>
       </c>
       <c r="D262" s="13" t="str">
-        <f>A262&amp;B262&amp;C262</f>
+        <f t="shared" si="4"/>
         <v>P03EP02M06</v>
       </c>
       <c r="E262" s="13" t="s">
@@ -41094,7 +41094,7 @@
         <v>37</v>
       </c>
       <c r="D263" s="8" t="str">
-        <f>A263&amp;B263&amp;C263</f>
+        <f t="shared" si="4"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E263" s="8" t="s">
@@ -41130,7 +41130,7 @@
         <v>37</v>
       </c>
       <c r="D264" s="8" t="str">
-        <f>A264&amp;B264&amp;C264</f>
+        <f t="shared" si="4"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E264" s="8" t="s">
@@ -41166,7 +41166,7 @@
         <v>14</v>
       </c>
       <c r="D265" s="8" t="str">
-        <f>A265&amp;B265&amp;C265</f>
+        <f t="shared" si="4"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E265" s="8" t="s">
@@ -41202,7 +41202,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="8" t="str">
-        <f>A266&amp;B266&amp;C266</f>
+        <f t="shared" si="4"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E266" s="8" t="s">
@@ -41236,7 +41236,7 @@
         <v>25</v>
       </c>
       <c r="D267" s="8" t="str">
-        <f>A267&amp;B267&amp;C267</f>
+        <f t="shared" si="4"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E267" s="8" t="s">
@@ -41272,7 +41272,7 @@
         <v>25</v>
       </c>
       <c r="D268" s="8" t="str">
-        <f>A268&amp;B268&amp;C268</f>
+        <f t="shared" si="4"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E268" s="8" t="s">
@@ -41308,7 +41308,7 @@
         <v>37</v>
       </c>
       <c r="D269" s="13" t="str">
-        <f>A269&amp;B269&amp;C269</f>
+        <f t="shared" si="4"/>
         <v>P02EP01M05</v>
       </c>
       <c r="E269" s="13" t="s">
@@ -41340,7 +41340,7 @@
         <v>61</v>
       </c>
       <c r="D270" s="13" t="str">
-        <f>A270&amp;B270&amp;C270</f>
+        <f t="shared" si="4"/>
         <v>P02EP01M06</v>
       </c>
       <c r="E270" s="13" t="s">
@@ -41372,7 +41372,7 @@
         <v>37</v>
       </c>
       <c r="D271" s="3" t="str">
-        <f>A271&amp;B271&amp;C271</f>
+        <f t="shared" si="4"/>
         <v>P02EP02M05</v>
       </c>
       <c r="E271" s="3" t="s">
@@ -41404,7 +41404,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="13" t="str">
-        <f>A272&amp;B272&amp;C272</f>
+        <f t="shared" si="4"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E272" s="13" t="s">
@@ -41436,7 +41436,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="13" t="str">
-        <f>A273&amp;B273&amp;C273</f>
+        <f t="shared" si="4"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E273" s="13" t="s">
@@ -41468,7 +41468,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="13" t="str">
-        <f>A274&amp;B274&amp;C274</f>
+        <f t="shared" si="4"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E274" s="13" t="s">
@@ -41500,7 +41500,7 @@
         <v>14</v>
       </c>
       <c r="D275" s="13" t="str">
-        <f>A275&amp;B275&amp;C275</f>
+        <f t="shared" si="4"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E275" s="13" t="s">
@@ -41531,10 +41531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:XFD141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -41557,253 +41557,253 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12.7</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.3</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>40.6</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>95</v>
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.5</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>0.1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>110</v>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.3</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>0.1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>13.89</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>0.1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13.63</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7.65</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>21.86</v>
+        <v>0.1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
-        <v>8.84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
+      <c r="A18" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>0.1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7.55</v>
+        <v>81</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>0.1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
+      <c r="A22" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B22" s="2">
-        <v>38.99</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -41821,10 +41821,10 @@
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>106</v>
@@ -41832,95 +41832,95 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.5</v>
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6.16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.5</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
         <v>0.1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2">
-        <v>22</v>
+        <v>0.1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1">
-        <v>7.75</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>112</v>
@@ -41929,404 +41929,406 @@
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="1">
-        <v>16.62</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2">
         <v>0.1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.5</v>
+        <v>56</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="1">
-        <v>19.14</v>
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2">
         <v>0.1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="1">
-        <v>10.16</v>
+        <v>28</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1">
         <v>0.3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="1">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2">
         <v>0.3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.1</v>
+        <v>42</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1">
-        <v>20.239999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.1</v>
+        <v>12</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
+        <v>48</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="5">
-        <v>43.8</v>
+        <v>67</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0.1</v>
+        <v>45</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
-      <c r="A63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>15</v>
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.5</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1">
-        <v>45.25</v>
+        <v>0.5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.5</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>22</v>
@@ -42335,250 +42337,250 @@
     </row>
     <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="15.75">
-      <c r="A68" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="2">
-        <v>7.55</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>122</v>
+      <c r="A68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" ht="15.75">
-      <c r="A69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="2">
-        <v>3</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>88</v>
+      <c r="A69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B70" s="1">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="15.75">
-      <c r="A71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>71</v>
+      <c r="A71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="15.75">
-      <c r="A72" s="1" t="s">
-        <v>67</v>
+      <c r="A72" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B73" s="1">
-        <v>5.33</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B74" s="2">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45.25</v>
+        <v>31</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B76" s="1">
-        <v>45.25</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B77" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="1" t="s">
-        <v>67</v>
+      <c r="A78" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B78" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B79" s="2">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="1">
-        <v>15</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0.3</v>
+        <v>35</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" ht="15.75">
-      <c r="A83" s="1" t="s">
-        <v>56</v>
+      <c r="A83" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B83" s="2">
-        <v>32.75</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="A85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="1">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B87" s="1">
-        <v>7.55</v>
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>88</v>
@@ -42589,20 +42591,20 @@
       <c r="A88" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="1">
-        <v>0.5</v>
+      <c r="B88" s="2">
+        <v>5.2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="2">
-        <v>5.2</v>
+        <v>28</v>
+      </c>
+      <c r="B89" s="1">
+        <v>5.33</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>38</v>
@@ -42611,322 +42613,322 @@
     </row>
     <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0.1</v>
+        <v>67</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5.33</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="15.75">
-      <c r="A91" s="1" t="s">
-        <v>27</v>
+      <c r="A91" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B91" s="1">
-        <v>23.62</v>
-      </c>
-      <c r="C91" s="1" t="s">
+        <v>5.66</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="15.75">
-      <c r="A92" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>106</v>
+      <c r="A92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B93" s="1">
-        <v>0.3</v>
+        <v>7.55</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" ht="15.75">
-      <c r="A94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>112</v>
+      <c r="A94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="2">
+        <v>7.55</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0.3</v>
+        <v>56</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7.55</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B96" s="1">
-        <v>0.5</v>
+        <v>7.65</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="1" t="s">
-        <v>28</v>
+      <c r="A97" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B97" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>17</v>
+        <v>7.75</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B98" s="1">
-        <v>5.33</v>
+        <v>7.75</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B99" s="2">
-        <v>0.1</v>
+        <v>8.84</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100" s="2">
-        <v>37.5</v>
+        <v>23</v>
+      </c>
+      <c r="B100" s="1">
+        <v>10.16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="2">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B101" s="1">
+        <v>12.7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B102" s="1">
-        <v>1.75</v>
+        <v>12.7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0.1</v>
+        <v>29</v>
+      </c>
+      <c r="B103" s="1">
+        <v>13.63</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B104" s="2">
-        <v>0.1</v>
+        <v>13.89</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>17</v>
+      <c r="A105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="1">
+        <v>14.62</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B106" s="1">
-        <v>12.7</v>
+        <v>14.7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" s="2">
-        <v>0.1</v>
+        <v>47</v>
+      </c>
+      <c r="B107" s="1">
+        <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="2">
-        <v>41.37</v>
+        <v>33</v>
+      </c>
+      <c r="B108" s="1">
+        <v>15</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B109" s="2">
-        <v>0.1</v>
+        <v>56</v>
+      </c>
+      <c r="B109" s="1">
+        <v>15</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B110" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="B110" s="1">
+        <v>15</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B111" s="1">
+        <v>16.62</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" s="2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B112" s="1">
+        <v>19.14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" ht="15.75">
-      <c r="A113" s="1" t="s">
-        <v>42</v>
+      <c r="A113" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B113" s="1">
-        <v>3</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>65</v>
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="1">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="B114" s="2">
+        <v>21.86</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B115" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="B115" s="2">
+        <v>22</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B116" s="1">
-        <v>14.7</v>
+        <v>23.62</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>91</v>
@@ -42934,26 +42936,26 @@
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" ht="15.75">
-      <c r="A117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>112</v>
+      <c r="A117" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="1">
+        <v>29.36</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B118" s="2">
-        <v>0.1</v>
+        <v>32.75</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D118" s="1"/>
     </row>
@@ -42961,317 +42963,149 @@
       <c r="A119" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="1">
-        <v>0.3</v>
+      <c r="B119" s="2">
+        <v>32.75</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="2">
-        <v>32.75</v>
+        <v>47</v>
+      </c>
+      <c r="B120" s="1">
+        <v>37.5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D120" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B121" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" ht="15.75">
-      <c r="A122" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" ht="15.75">
-      <c r="A123" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B123" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>38</v>
+      <c r="A123" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" s="2">
+        <v>38.99</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" ht="15.75">
-      <c r="A124" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="2">
-        <v>3</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>73</v>
+      <c r="A124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" ht="15.75">
-      <c r="A125" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="1">
-        <v>3</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D125" s="4"/>
+      <c r="A125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" s="2">
+        <v>41.37</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" ht="15.75">
-      <c r="A126" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="1">
-        <v>14.62</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="4"/>
+      <c r="A126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="5">
+        <v>43.8</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" ht="15.75">
-      <c r="A127" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B127" s="2">
-        <v>3</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="4"/>
+      <c r="A127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45.25</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1">
-        <v>37.5</v>
+        <v>45.25</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" ht="15.75">
-      <c r="A129" s="1" t="s">
-        <v>47</v>
+      <c r="A129" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B129" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>65</v>
+        <v>62.5</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B130" s="2">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="B130" s="1">
+        <v>62.5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="15.75">
-      <c r="A131" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B131" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" ht="15.75">
-      <c r="A132" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" ht="15.75">
-      <c r="A133" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B133" s="1">
-        <v>15</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" ht="15.75">
-      <c r="A134" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B134" s="2">
-        <v>3</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" ht="15.75">
-      <c r="A135" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B135" s="1">
-        <v>3</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" ht="15.75">
-      <c r="A136" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B136" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" ht="15.75">
-      <c r="A137" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" s="1">
-        <v>29.36</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" ht="15.75">
-      <c r="A138" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B138" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.75">
-      <c r="A139" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B139" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" ht="15.75">
-      <c r="A140" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B140" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" ht="15.75">
-      <c r="A141" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B141" s="2">
-        <v>3</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" ht="15.75">
-      <c r="A142" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" ht="15.75">
-      <c r="A143" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B143" s="1">
-        <v>5.66</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" ht="15.75">
-      <c r="A144" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" s="1">
-        <v>3</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:D275">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:C145">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
